--- a/Wieke_fig_3_Appendix B.xlsx
+++ b/Wieke_fig_3_Appendix B.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="295" documentId="8_{D36996B4-1C6E-4D2E-8CDD-A95053FFA884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B273F04-5EA3-4768-9AE3-E485AD36E469}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6B8C3D75-1C7B-4CF6-8EC5-C2501197A7C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{6B8C3D75-1C7B-4CF6-8EC5-C2501197A7C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PATE conf + pred interval" sheetId="4" r:id="rId1"/>
@@ -8119,8 +8119,8 @@
       <xdr:rowOff>168489</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1590564" cy="236155"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Tekstvak 1">
@@ -8370,7 +8370,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="Tekstvak 1">
@@ -8513,8 +8513,8 @@
       <xdr:rowOff>218560</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2541658" cy="545662"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="Tekstvak 2">
@@ -8874,7 +8874,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="Tekstvak 2">
@@ -9161,8 +9161,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1590564" cy="236155"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="Tekstvak 3">
@@ -9412,7 +9412,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="Tekstvak 3">
@@ -9555,8 +9555,8 @@
       <xdr:rowOff>199122</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2244717" cy="545662"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="Tekstvak 4">
@@ -9904,7 +9904,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="Tekstvak 4">
@@ -10184,8 +10184,8 @@
       <xdr:rowOff>168489</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1590564" cy="236155"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Tekstvak 1">
@@ -10435,7 +10435,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Tekstvak 1">
@@ -10578,8 +10578,8 @@
       <xdr:rowOff>332</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3057953" cy="545662"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Tekstvak 2">
@@ -10921,7 +10921,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Tekstvak 2">
@@ -11208,8 +11208,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1590564" cy="236155"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Tekstvak 3">
@@ -11459,7 +11459,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Tekstvak 3">
@@ -11602,8 +11602,8 @@
       <xdr:rowOff>1849</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2789417" cy="545662"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Tekstvak 4">
@@ -11933,7 +11933,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Tekstvak 4">
@@ -15338,7 +15338,7 @@
   <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:M30"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20273,8 +20273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144F7468-4056-423D-82D5-16DA8D706779}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20596,7 +20596,7 @@
         <v>64958.785496674616</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="E7:L7" si="6">DEVSQ($A$3:$A$194)</f>
+        <f t="shared" ref="F7:L7" si="6">DEVSQ($A$3:$A$194)</f>
         <v>64958.785496674616</v>
       </c>
       <c r="G7" s="2">
@@ -22030,8 +22030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5DDA2E-912A-4471-9F68-BB092B329F26}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22098,11 +22098,11 @@
         <v>-0.17846410301119939</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q37" si="0">$O$2*A3+$O$3</f>
+        <f t="shared" ref="Q2:Q26" si="0">$O$2*A3+$O$3</f>
         <v>2.3354210249759184</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R37" si="1">(Q2-B3)^2</f>
+        <f t="shared" ref="R2:R27" si="1">(Q2-B3)^2</f>
         <v>1.8632132209686224E-3</v>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="E4:L4" si="3">$E$3-2</f>
+        <f t="shared" ref="F4:L4" si="3">$E$3-2</f>
         <v>24</v>
       </c>
       <c r="G4" s="1">
@@ -22295,7 +22295,7 @@
         <v>0.18473296189486701</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="E6:L6" si="5">STEYX($B$3:$B$194, $A$3:$A$194)</f>
+        <f t="shared" ref="F6:L6" si="5">STEYX($B$3:$B$194, $A$3:$A$194)</f>
         <v>0.18473296189486701</v>
       </c>
       <c r="G6" s="2">
@@ -22353,7 +22353,7 @@
         <v>246.96153846153851</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:M7" si="6">DEVSQ($A$3:$A$194)</f>
+        <f t="shared" ref="F7:L7" si="6">DEVSQ($A$3:$A$194)</f>
         <v>246.96153846153851</v>
       </c>
       <c r="G7" s="2">
@@ -23671,8 +23671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5636F9FA-0A09-417B-9EB7-B2BA49EA67E9}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23739,7 +23739,7 @@
         <v>-3.7080586963924595E-3</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q37" si="0">$O$2*A3+$O$3</f>
+        <f t="shared" ref="Q2:Q26" si="0">$O$2*A3+$O$3</f>
         <v>0.6113763872653375</v>
       </c>
       <c r="R2">
@@ -23936,7 +23936,7 @@
         <v>0.42362622593957044</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:M6" si="5">STEYX($B$3:$B$194, $A$3:$A$194)</f>
+        <f t="shared" ref="F6:L6" si="5">STEYX($B$3:$B$194, $A$3:$A$194)</f>
         <v>0.42362622593957044</v>
       </c>
       <c r="G6" s="2">
@@ -23994,7 +23994,7 @@
         <v>463602.43902439019</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:M7" si="6">DEVSQ($A$3:$A$194)</f>
+        <f t="shared" ref="F7:L7" si="6">DEVSQ($A$3:$A$194)</f>
         <v>463602.43902439019</v>
       </c>
       <c r="G7" s="2">
@@ -25383,16 +25383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Brief" ma:contentTypeID="0x01010082E62A0BAF645948910C74B95413F7A1009EB998A7F8A6B4428DDC75E6205A06D1" ma:contentTypeVersion="21" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8240c9f3cbadb7cc0e0c692fc7e00cb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56507e8f-35fa-4488-a198-a86b89e1c54e" xmlns:ns3="569c121f-f531-4c0e-8323-82670d54aa76" xmlns:ns4="3c756f50-8749-4fdc-9f07-7447a579048a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ebee25a2125b82121dd14ae47b8b2d6" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="56507e8f-35fa-4488-a198-a86b89e1c54e"/>
@@ -25653,7 +25643,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Metadata xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
@@ -25665,24 +25674,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03254E5-E74A-4167-9A4F-FE37A4FB5E07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017AA32-3EED-43B4-A6DC-ACD52AF3D90F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25702,7 +25694,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03254E5-E74A-4167-9A4F-FE37A4FB5E07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494F6368-EF99-46AF-AC85-408C50CA1F2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A053A1-EE62-4A95-8CA4-1574A201746E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -25711,12 +25719,4 @@
     <ds:schemaRef ds:uri="3c756f50-8749-4fdc-9f07-7447a579048a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494F6368-EF99-46AF-AC85-408C50CA1F2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Wieke_fig_3_Appendix B.xlsx
+++ b/Wieke_fig_3_Appendix B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/georgios_pampoukis_wur_nl/Documents/PhD components/3rd year/qmra_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="8_{D36996B4-1C6E-4D2E-8CDD-A95053FFA884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0660EC-0F59-44E4-9D5E-424F253D626B}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{D36996B4-1C6E-4D2E-8CDD-A95053FFA884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C298A9E0-3C07-4CFB-8102-F873A1F3E2DD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{6B8C3D75-1C7B-4CF6-8EC5-C2501197A7C6}"/>
+    <workbookView xWindow="28680" yWindow="960" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{6B8C3D75-1C7B-4CF6-8EC5-C2501197A7C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PATE conf + pred interval" sheetId="4" r:id="rId1"/>
@@ -8283,8 +8283,8 @@
       <xdr:rowOff>168489</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1590564" cy="236155"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Tekstvak 1">
@@ -8534,7 +8534,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Tekstvak 1">
@@ -8677,8 +8677,8 @@
       <xdr:rowOff>966</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3653629" cy="545662"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Tekstvak 2">
@@ -9110,7 +9110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Tekstvak 2">
@@ -9445,8 +9445,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1590564" cy="236155"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Tekstvak 3">
@@ -9696,7 +9696,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Tekstvak 3">
@@ -9839,8 +9839,8 @@
       <xdr:rowOff>4388</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3385094" cy="545662"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Tekstvak 4">
@@ -10260,7 +10260,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Tekstvak 4">
@@ -14690,18 +14690,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5907C5C6-7CE7-4A51-9862-EB9FB13550EA}" name="Tabel279" displayName="Tabel279" ref="D2:L17" totalsRowShown="0" dataDxfId="33" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5907C5C6-7CE7-4A51-9862-EB9FB13550EA}" name="Tabel279" displayName="Tabel279" ref="D2:L17" totalsRowShown="0" dataDxfId="21" dataCellStyle="Standaard 2">
   <autoFilter ref="D2:L17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4B897DC8-DBF6-4EED-9450-0D767AF780B9}" name="Variable" dataDxfId="32" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{4E14D25E-8CA0-4FA7-BC05-583BD02752D5}" name="40" dataDxfId="31" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{33C6AA46-FD0F-42A5-A7BD-C9837F6BE547}" name="50" dataDxfId="30" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{A52C4118-EDD9-46DD-A1F2-3BF211D05EE4}" name="60" dataDxfId="29" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{44C68122-0AFA-4B98-90CC-191627F029F7}" name="70" dataDxfId="28" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{4679E628-44CB-48DD-89CB-6222CE41512C}" name="80" dataDxfId="27" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{80FB79EF-215E-43F5-B1C5-DC3993BA8227}" name="90" dataDxfId="26" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{3263440B-8100-4E6E-AD13-7B8D0972D3F4}" name="100" dataDxfId="25" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{B55A2DBD-EB01-48AE-9F21-66455846945A}" name="110" dataDxfId="24" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{4B897DC8-DBF6-4EED-9450-0D767AF780B9}" name="Variable" dataDxfId="20" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{4E14D25E-8CA0-4FA7-BC05-583BD02752D5}" name="40" dataDxfId="19" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{33C6AA46-FD0F-42A5-A7BD-C9837F6BE547}" name="50" dataDxfId="18" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{A52C4118-EDD9-46DD-A1F2-3BF211D05EE4}" name="60" dataDxfId="17" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{44C68122-0AFA-4B98-90CC-191627F029F7}" name="70" dataDxfId="16" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{4679E628-44CB-48DD-89CB-6222CE41512C}" name="80" dataDxfId="15" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{80FB79EF-215E-43F5-B1C5-DC3993BA8227}" name="90" dataDxfId="14" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{3263440B-8100-4E6E-AD13-7B8D0972D3F4}" name="100" dataDxfId="13" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{B55A2DBD-EB01-48AE-9F21-66455846945A}" name="110" dataDxfId="12" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14711,26 +14711,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{15F3F631-37B1-48FC-B640-77B8B4078AC9}" name="Tabel16810" displayName="Tabel16810" ref="A2:B194" totalsRowShown="0">
   <autoFilter ref="A2:B194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{90B3A7A6-8D1B-45BA-92F4-FB515A91B1DF}" name="Pressure" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{671AB8F3-8862-4DA5-8FBD-E111D172319C}" name="logD" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{90B3A7A6-8D1B-45BA-92F4-FB515A91B1DF}" name="Pressure" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{671AB8F3-8862-4DA5-8FBD-E111D172319C}" name="logD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5650FE4A-FFAB-409D-9BDD-AD05A2FD28D3}" name="Tabel27911" displayName="Tabel27911" ref="D2:L17" totalsRowShown="0" dataDxfId="21" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5650FE4A-FFAB-409D-9BDD-AD05A2FD28D3}" name="Tabel27911" displayName="Tabel27911" ref="D2:L17" totalsRowShown="0" dataDxfId="9" dataCellStyle="Standaard 2">
   <autoFilter ref="D2:L17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C214F877-7692-4504-A9AE-0EDB66BB2F31}" name="Variable" dataDxfId="20" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{59C462F6-6C6B-417C-9DEB-4D6E22FD1940}" name="40" dataDxfId="19" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{3BD7C3DF-55E8-46BF-9337-4A0C1677B610}" name="50" dataDxfId="18" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{0F94E1F2-D2D6-4249-9B6F-5FF00E03F457}" name="60" dataDxfId="17" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{B2E02DDC-CC57-44A8-BC7F-1CC642957552}" name="70" dataDxfId="16" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{8894B8DB-2697-4F35-9F7F-CAE7B6B8C305}" name="80" dataDxfId="15" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{71D59215-80DE-4747-A921-89F75A784E66}" name="90" dataDxfId="14" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{D70C4422-84B0-4381-A837-013D550B761A}" name="100" dataDxfId="13" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{2D90301E-DA13-4FA7-9B6C-8F05A220FBB6}" name="110" dataDxfId="12" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{C214F877-7692-4504-A9AE-0EDB66BB2F31}" name="Variable" dataDxfId="8" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{59C462F6-6C6B-417C-9DEB-4D6E22FD1940}" name="40" dataDxfId="7" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{3BD7C3DF-55E8-46BF-9337-4A0C1677B610}" name="50" dataDxfId="6" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{0F94E1F2-D2D6-4249-9B6F-5FF00E03F457}" name="60" dataDxfId="5" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{B2E02DDC-CC57-44A8-BC7F-1CC642957552}" name="70" dataDxfId="4" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{8894B8DB-2697-4F35-9F7F-CAE7B6B8C305}" name="80" dataDxfId="3" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{71D59215-80DE-4747-A921-89F75A784E66}" name="90" dataDxfId="2" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{D70C4422-84B0-4381-A837-013D550B761A}" name="100" dataDxfId="1" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{2D90301E-DA13-4FA7-9B6C-8F05A220FBB6}" name="110" dataDxfId="0" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14818,26 +14818,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{53664E5F-FC6A-4800-BF4D-6D832E15718F}" name="Tabel1612" displayName="Tabel1612" ref="A2:B194" totalsRowShown="0">
   <autoFilter ref="A2:B194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{15B8ABD3-5D73-4DE3-92E3-2C6FCB67F95B}" name="est_energy_input_2_J_ml" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{5A907068-15E6-4A89-A4D5-F28FCA63BCBC}" name="microbial reductions" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{15B8ABD3-5D73-4DE3-92E3-2C6FCB67F95B}" name="est_energy_input_2_J_ml" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{5A907068-15E6-4A89-A4D5-F28FCA63BCBC}" name="microbial reductions" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{26B835BA-7321-4214-88E4-047C977F032E}" name="Tabel2713" displayName="Tabel2713" ref="D2:L17" totalsRowShown="0" dataDxfId="9" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{26B835BA-7321-4214-88E4-047C977F032E}" name="Tabel2713" displayName="Tabel2713" ref="D2:L17" totalsRowShown="0" dataDxfId="33" dataCellStyle="Standaard 2">
   <autoFilter ref="D2:L17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{67288AB3-AA1E-457A-AA60-D1D37018950C}" name="Variable" dataDxfId="8" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{B39D16DF-A2C2-4D59-9D88-278980E8C290}" name="20 kJ/L" dataDxfId="7" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{DEF90415-0040-4109-9B46-6F24E32E2088}" name="40 kJ/L" dataDxfId="6" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{2FB8629E-0323-4964-AB8A-DB30969C5B43}" name="60 kJ/L" dataDxfId="5" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{E074050C-AF1D-4720-860C-E43FC5D4709B}" name="80 kJ/L" dataDxfId="4" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{623C8065-D382-43D0-84C5-C8C7D9F38051}" name="100 kJ/L" dataDxfId="3" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{18D9BDA9-7BF9-40B7-9C16-E268D01C1EB1}" name="120 kJ/L" dataDxfId="2" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{DAD3605C-16DE-4F4B-A465-249D9F55534B}" name="160 kJ/L" dataDxfId="1" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{4234EB74-A18D-467D-8BFC-EDA0D9936100}" name="200 kJ/L" dataDxfId="0" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{67288AB3-AA1E-457A-AA60-D1D37018950C}" name="Variable" dataDxfId="32" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{B39D16DF-A2C2-4D59-9D88-278980E8C290}" name="20 kJ/L" dataDxfId="31" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{DEF90415-0040-4109-9B46-6F24E32E2088}" name="40 kJ/L" dataDxfId="30" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{2FB8629E-0323-4964-AB8A-DB30969C5B43}" name="60 kJ/L" dataDxfId="29" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{E074050C-AF1D-4720-860C-E43FC5D4709B}" name="80 kJ/L" dataDxfId="28" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{623C8065-D382-43D0-84C5-C8C7D9F38051}" name="100 kJ/L" dataDxfId="27" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{18D9BDA9-7BF9-40B7-9C16-E268D01C1EB1}" name="120 kJ/L" dataDxfId="26" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{DAD3605C-16DE-4F4B-A465-249D9F55534B}" name="160 kJ/L" dataDxfId="25" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{4234EB74-A18D-467D-8BFC-EDA0D9936100}" name="200 kJ/L" dataDxfId="24" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14847,8 +14847,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B7875D1F-170B-43EE-9F58-F91E90A6E967}" name="Tabel168" displayName="Tabel168" ref="A2:B194" totalsRowShown="0">
   <autoFilter ref="A2:B194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{0A1ED375-684F-4614-AD5A-85A527155E94}" name="Temperature C" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{9B79C9B8-CB5F-4CFB-8FBF-D06F0242259E}" name="logD" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{0A1ED375-684F-4614-AD5A-85A527155E94}" name="Temperature C" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9B79C9B8-CB5F-4CFB-8FBF-D06F0242259E}" name="logD" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15157,18 +15157,18 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="47" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
-    <col min="7" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="14" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" customWidth="1"/>
+    <col min="7" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>7.125</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>1.4468425488402914E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>3291.75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -15526,7 +15526,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0.2815366920645001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>2.3232596170053954E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1.465376645649422E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>0.27698310321516956</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>0.28609028091383065</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>0.25281530980977146</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>0.31025807431922875</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>6.3639610306789274E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -15948,7 +15948,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -15972,7 +15972,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -15994,7 +15994,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -16018,7 +16018,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -16040,7 +16040,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -16062,7 +16062,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -16086,7 +16086,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -16108,7 +16108,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -16132,7 +16132,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -16154,7 +16154,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -16200,7 +16200,7 @@
       <c r="L30" s="15"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>6.7230945255886437E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>7.5762787699503245E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>7.8549347546621934E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>7.8866976612521414E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>7.4899933244296016E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>7.1274118724821853E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>6.5878676368002417E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>6.4420493633625633E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>0.10770329614269007</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>0.10246950765959599</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>9.5341491492424227E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>9.6228893789755257E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>9.2466210044534647E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>0.10099504938362078</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>9.5655632348544961E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>0.11916375287812986</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>9.7928545378760737E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>9.2897793299948739E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>9.2520268049763016E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>0.1044030650891055</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>0.10344080432788601</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>0.10770329614269007</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>0.11090536506409417</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>9.823441352194251E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>0.10198039027185569</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>0.10583005244258362</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>0.11313708498984761</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>0.12806248474865697</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0.12609520212918493</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>0.13490737563232041</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -16634,7 +16634,7 @@
         <v>0.12409673645990857</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>0.12041594578792296</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>0.13379088160259653</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>0.14491376746189438</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>0.13379088160259653</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>0.14798648586948743</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>0.12409673645990857</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>0.116619037896906</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0.13416407864998739</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>0.12328828005937953</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>0.13711309200802088</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>0.13490737563232041</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>0.13038404810405299</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>0.16462077633154329</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>0.17320508075688773</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>0.17117242768623689</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>0.17888543819998318</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0.13674794331177342</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>0.14764823060233401</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>0.16792855623746664</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>0.16186414056238646</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>0.17029386365926402</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>0.18708286933869708</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>0.15491933384829668</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>0.16431676725154984</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>0.18627936010197158</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>0.18708286933869708</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>0.1905255888325765</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>0.19570385790780928</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>0.18547236990991409</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>0.19261360284258222</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>0.19183326093250877</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>0.19949937343260005</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>0.19595917942265423</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>0.21587033144922904</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>0.19390719429665315</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>0.20346989949375804</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>0.18520259177452134</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>0.2240535650240808</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>0.2073644135332772</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>0.2102379604162864</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>0.20297783130184438</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>0.19519221295943134</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>0.1772004514666935</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>0.18220867158288598</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>0.26702059845637377</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>0.25436194683953806</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>0.2483948469674844</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>0.27982137159266446</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>0.24020824298928628</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>0.22715633383201095</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>0.2137755832643195</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>0.25436194683953806</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>0.26664583251946766</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>0.26115129714401192</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>0.23579652245103191</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>0.232379000772445</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>0.24186773244895649</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>0.23916521486202796</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>0.2515949125081825</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -17544,7 +17544,7 @@
         <v>0.23853720883753127</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>0.25377155080899039</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>0.261725046566048</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>0.28913664589601917</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>0.27422618401604176</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>0.28913664589601917</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>0.26038433132583072</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>0.31208973068654472</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>0.25238858928247926</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>0.24556058315617349</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>0.24738633753705963</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>0.28354893757515648</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>0.28861739379323625</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>0.2861817604250837</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0.27910571473905726</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>0.29171904291629641</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>0.28213471959331771</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>0.31208973068654472</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>0.27258026340878022</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0.27055498516937365</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -17843,19 +17843,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="47" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
-    <col min="7" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="14" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" customWidth="1"/>
+    <col min="7" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="14" width="12.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>9.9544660085439996E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>1.025004806046576E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>9.0019536341341103E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>4.6809715683276834E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>1.3567921026757595E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>1.3032704962756734E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>3.3318288499701859E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>1.5782781649195549E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>4.6152161310375304E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>6.1641530195817237E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>4.2888912553229735E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>8.8565775998219098E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>8.2783947120528044E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>1.1668661452380398E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>9.0019536341341103E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>3.0627230464644041E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>3.4274648411752244E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>1.9828028878137339E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>1.9828028878137339E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>2.0855924069358635E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -19182,7 +19182,7 @@
         <v>6.2227822333475139E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1.5218473157207861E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>3.5208531829207756E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>3.3043022248081485E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>2.9150288578742156E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>8.3562825571939872E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>9.338515707278456E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>2.9150288578742156E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>3.3965281748648174E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>1.7344412397446145E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>6.1100258280036204E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>2.3508491647365249E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>3.6784042800406625E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>2.8566760001859435E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>2.5433393441059402E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>1.1503551084649201E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>1.298397831086748E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>3.122516078382514E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>4.5343143121331648E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>2.5080251221084031E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>2.5080251221084031E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>4.9802663193286632E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>5.7831705956760717E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>1.3213156170710668E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>8.3091028948315758E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>3.9070169926479838E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>5.6692378771299335E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>4.2633510451096853E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -19798,7 +19798,7 @@
         <v>4.3455211662476941E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>5.2307257098975935E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>5.2307257098975935E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>3.608071541116664E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>2.7132910952872491E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>6.6858979981079206E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>2.7132910952872491E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>5.9765045578062637E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>3.8307428569724821E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>5.4223831330305083E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>2.4512780533784224E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>1.2880194080841392E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>1.277908611044566E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>8.7208108976342719E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>8.7918522003354476E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>4.7882849071668815E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>7.3982566368659597E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>7.5312801240339904E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>1.9648400887811948E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>3.3712763546210665E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>8.4009577258945358E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -20260,7 +20260,7 @@
         <v>1.05952418972735E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>4.4902091938636886E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>1.0360288941023382E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>1.2566921356929278E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>1.858887868167725E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>1.2729342463798977E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>2.3696871416377528E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>2.7371294384752336E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>1.192435826132046E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>1.2814006856684155E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>3.0510129630127936E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>4.6512521816153837E-6</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>1.3947303468668293E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>1.3295928172606222E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>3.5995877668607701E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>3.9558055094667845E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>2.6319165513872666E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>2.2145302410347628E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>2.7974681811747734E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>9.6167589174561937E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>6.222101808368173E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>5.0006184604718402E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>5.1470862993150692E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>1.9593107448075391E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>5.8557468032380528E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>1.2562334248806989E-8</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>1.9716071983397381E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>2.2599116271742639E-5</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>4.1305378660749654E-6</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>2.2599116271742639E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>4.3291599568034275E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>2.6683941743849399E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>8.9333129872312415E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>1.4202342950089244E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>6.4369017864172266E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>2.5754941964142223E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>4.3291599568034275E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -21074,7 +21074,7 @@
         <v>1.0541400931059789E-6</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>7.8878212069597342E-6</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -21118,7 +21118,7 @@
         <v>3.0944759479412378E-5</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>1.0879308915457995E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>1.0879308915457995E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>6.7556445074398481E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>1.0769416731664866E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>8.1819589113698676E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>6.7556445074398481E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>1.1553129399685866E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>1.1026803117669746E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>3.8004124217085608E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>3.272808312397057E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -21360,7 +21360,7 @@
         <v>1.2372041668938496E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>1.5369190485002267E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>1.1553129399685866E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>1.182214061534823E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>9.0723517098038257E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>9.3038097048941438E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>1.1026803117669746E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>1.2372041668938496E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>1.9555955594959145E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>1.8810309820969406E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v>1.4735662229251017E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>2.5634330940644179E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>5.785653243959351E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>2.4913902287339181E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>1.182214061534823E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>1.0515834869208366E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>8.9704022090076073E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>7.7348758268955113E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>2.4349200592488463E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>8.5045252412775289E-5</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>3.2425626604882092E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -21822,7 +21822,7 @@
         <v>1.0451913638971821E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>2.4969392739843093E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>3.6154494740656775E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>3.946987219565175E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>1.6716941931996711E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>2.3536273974340298E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>1.8261440992400175E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>4.9628739683167519E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>2.8151997729665076E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>3.9055216013035997E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>2.9688044302996048E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -22064,7 +22064,7 @@
         <v>5.6253832509036753E-6</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>5.7654265625400091E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>4.696394187148986E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>3.1709275714181242E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -22152,7 +22152,7 @@
         <v>3.1029804505661646E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>7.2344129424368553E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>1.5470657053100827E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>3.4483463028169479E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>2.1050966886709219E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>1.2262627205156912E-5</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>3.1296204999130793E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>3.4220495486921212E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>8.8761815179403574E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>3.0534268920136489E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>1.3572027624213637E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -22394,7 +22394,7 @@
         <v>9.7918866703568816E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v>1.8639942333301695E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>7.9128744657424865E-8</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>3.3461550818434101E-5</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>1.9734566108788225E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -22504,7 +22504,7 @@
         <v>1.8787158303253408E-5</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>8.4222252533781244E-7</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>3.0146909380810803E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>3.2314891236182959E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -22592,7 +22592,7 @@
         <v>8.6484011502859122E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>4.5573369437882776E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -22636,7 +22636,7 @@
         <v>7.5535060867325352E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>1.249046928171796E-7</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>4.3610722605907974E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>1.5294137411964124E-5</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -22724,7 +22724,7 @@
         <v>1.4431596089821937E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>6.0662053882674591E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -22779,18 +22779,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="12" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>59</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>6.6121911247567387E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>187.849999999999</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>8.3754978316147473E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>146.25</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>0.71114134972295973</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>124.27</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>0.21198133337745786</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>109.849999999999</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>1.1552935594603111</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>96.749999999999901</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>0.90841139218927758</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>78.649999999999906</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>1.5158668772330917</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>72.669999999999902</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>2.7126619565021453</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>52.649999999999899</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>0.76103090169293108</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>52.029999999999902</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>0.4334142057181134</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34.83</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>2.5803142062610873</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>128.99249999999901</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>0.64622634336985951</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>94.77</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>1.8709822225130188</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>76.44</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>0.13246928962700164</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>65.8125</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>0.46706504781157115</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>56.16</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>0.16804361187481784</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>39</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>1.136057838099104E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23.8874999999999</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>0.17952640525636837</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17.549999999999901</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>0.31533680158329125</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>134.15625</v>
       </c>
@@ -23694,7 +23694,7 @@
         <v>0.87923169498021636</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>133.596</v>
       </c>
@@ -23720,7 +23720,7 @@
         <v>0.16233036022583794</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>132.19200000000001</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>0.92041754439980883</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>120.744</v>
       </c>
@@ -23768,7 +23768,7 @@
         <v>1.5848263691675565E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>118.58399999999899</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>0.45276863385071747</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>118.46250000000001</v>
       </c>
@@ -23818,7 +23818,7 @@
         <v>0.92414074257062062</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>84.078000000000003</v>
       </c>
@@ -23844,7 +23844,7 @@
         <v>2.2635656752090063</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>82.188000000000002</v>
       </c>
@@ -23868,7 +23868,7 @@
         <v>1.7645840613897217</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>80.325000000000003</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>1.3461209452314571</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>42.443999999999903</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>0.79244604970344867</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42.039000000000001</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>1.0685799954396447</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>40.162500000000001</v>
       </c>
@@ -23950,7 +23950,7 @@
         <v>0.4308529618650363</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20.081250000000001</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>0.35100721375814331</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18.710999999999999</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1.3361393792315954</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>145.80000000000001</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>4.964801240891334</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>90.72</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>1.9234930075934253</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>78.408000000000001</v>
       </c>
@@ -24040,7 +24040,7 @@
         <v>1.3471810208653305</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>48.787199999999999</v>
       </c>
@@ -24048,25 +24048,25 @@
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45"/>
       <c r="D45" s="24" t="s">
         <v>85</v>
@@ -24080,7 +24080,7 @@
         <v>3.305718950210041</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46"/>
       <c r="D46" s="26">
         <v>2</v>
@@ -24090,7 +24090,7 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47"/>
       <c r="D47" s="26">
         <v>3</v>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48"/>
       <c r="D48" s="26">
         <v>9</v>
@@ -24110,7 +24110,7 @@
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49"/>
       <c r="D49" s="26">
         <v>1</v>
@@ -24120,7 +24120,7 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50"/>
       <c r="D50" s="26">
         <v>8</v>
@@ -24130,7 +24130,7 @@
       </c>
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51"/>
       <c r="D51" s="26">
         <v>7</v>
@@ -24140,7 +24140,7 @@
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52"/>
       <c r="D52" s="26">
         <v>5</v>
@@ -24150,430 +24150,430 @@
       </c>
       <c r="F52" s="27"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -24593,21 +24593,21 @@
   <dimension ref="A1:R194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="12" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>59</v>
       </c>
@@ -24618,7 +24618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -24667,7 +24667,7 @@
         <v>0.42882197402495797</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>187.849999999999</v>
       </c>
@@ -24720,11 +24720,11 @@
         <v>4.6361249999999998</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R2:R37" si="2">(Q3-B4)^2</f>
+        <f t="shared" ref="R3:R37" si="2">(Q3-B4)^2</f>
         <v>6.5600015624999966E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>146.25</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>0.50501063088100107</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>124.27</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>0.18297434002502724</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>109.849999999999</v>
       </c>
@@ -24898,7 +24898,7 @@
         <v>1.283745650625008</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>96.749999999999901</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v>1.2923028720250065</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>78.649999999999906</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>2.1209873623210083</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>72.669999999999902</v>
       </c>
@@ -25017,7 +25017,7 @@
         <v>4.0441008900250139</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>52.649999999999899</v>
       </c>
@@ -25032,7 +25032,7 @@
         <v>1.2243816891233712</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="E10:L10" si="7">FORECAST(F8, $B$3:$B$194, $A$3:$A$194)</f>
+        <f t="shared" ref="F10:L10" si="7">FORECAST(F8, $B$3:$B$194, $A$3:$A$194)</f>
         <v>1.7196969934418518</v>
       </c>
       <c r="G10" s="2">
@@ -25068,7 +25068,7 @@
         <v>1.5392099412010081</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>52.029999999999902</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>1.3130616003210003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34.83</v>
       </c>
@@ -25162,7 +25162,7 @@
         <v>2.0763015993751539</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>128.99249999999901</v>
       </c>
@@ -25213,7 +25213,7 @@
         <v>0.76700987568099999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>94.77</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>2.455025189904001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>76.44</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>8.3277031640624673E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>65.8125</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>1.0466544917617715</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>56.16</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>2.3716899999999966E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>39</v>
       </c>
@@ -25433,7 +25433,7 @@
         <v>0.30555052713906605</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23.8874999999999</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>3.3732832225001168E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17.549999999999901</v>
       </c>
@@ -25485,7 +25485,7 @@
         <v>0.58179232969726513</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>134.15625</v>
       </c>
@@ -25509,7 +25509,7 @@
         <v>1.2882095640462397</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>133.596</v>
       </c>
@@ -25535,7 +25535,7 @@
         <v>0.34867418858496008</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>132.19200000000001</v>
       </c>
@@ -25559,7 +25559,7 @@
         <v>1.1397373051910402</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>120.744</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>4.801041912382599E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>118.58399999999899</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>0.58562478075156255</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>118.46250000000001</v>
       </c>
@@ -25633,7 +25633,7 @@
         <v>0.66466941231076015</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>84.078000000000003</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>1.8099924533121596</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>82.188000000000002</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>1.33703547150625</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>80.325000000000003</v>
       </c>
@@ -25707,7 +25707,7 @@
         <v>0.52631368543503565</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>42.443999999999903</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>0.20487962007769009</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42.039000000000001</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>0.34006538037656253</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>40.162500000000001</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>4.4323138441406283E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20.081250000000001</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v>4.7077437690000959E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18.710999999999999</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>2.0674413795999991</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>145.80000000000001</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>5.4204034869760003</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>90.72</v>
       </c>
@@ -25839,7 +25839,7 @@
         <v>1.4436829919289602</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>78.408000000000001</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>2.4069839462219775</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>48.787199999999999</v>
       </c>
@@ -25863,25 +25863,25 @@
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45"/>
       <c r="D45" s="24" t="s">
         <v>85</v>
@@ -25895,7 +25895,7 @@
         <v>3.305718950210041</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46"/>
       <c r="D46" s="26">
         <v>2</v>
@@ -25905,7 +25905,7 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47"/>
       <c r="D47" s="26">
         <v>3</v>
@@ -25915,7 +25915,7 @@
       </c>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48"/>
       <c r="D48" s="26">
         <v>9</v>
@@ -25925,7 +25925,7 @@
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49"/>
       <c r="D49" s="26">
         <v>1</v>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50"/>
       <c r="D50" s="26">
         <v>8</v>
@@ -25945,7 +25945,7 @@
       </c>
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51"/>
       <c r="D51" s="26">
         <v>7</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52"/>
       <c r="D52" s="26">
         <v>5</v>
@@ -25965,430 +25965,430 @@
       </c>
       <c r="F52" s="27"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -26410,18 +26410,18 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="12" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>65</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1.8632132209686224E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>47</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>2.0217654247110521E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>50</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>5.0726451345887011E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>53</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>0.1386191233260903</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>58</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>1.3562987769970948E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>56</v>
       </c>
@@ -26765,7 +26765,7 @@
         <v>1.3422135909177841E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>56</v>
       </c>
@@ -26808,7 +26808,7 @@
         <v>8.7539022784368526E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>58</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>2.9498801887541764E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>58</v>
       </c>
@@ -26884,7 +26884,7 @@
         <v>1.2610773164396108E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>60</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>2.5825638447396999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>60</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>4.3571634699073068E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>55</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>0.1386191233260903</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>58</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>6.5659536276975862E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>58</v>
       </c>
@@ -27131,7 +27131,7 @@
         <v>1.2610773164396108E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>60</v>
       </c>
@@ -27182,7 +27182,7 @@
         <v>1.6175796958199418E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>56</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>2.8289863870538397E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>58</v>
       </c>
@@ -27249,7 +27249,7 @@
         <v>2.8998563472162408E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>60</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>3.1456099100485961E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>56</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>3.4866512238966182E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>58</v>
       </c>
@@ -27317,7 +27317,7 @@
         <v>4.069618325198086E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>60</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>2.1262645759288934E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>56</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>1.7644894527570423E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>58</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>6.7625999004401337E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>60</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>9.7436740542836631E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
         <v>56</v>
       </c>
@@ -27441,7 +27441,7 @@
         <v>0.10670290920224813</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>58</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>4.6251335035409784E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>60</v>
       </c>
@@ -27483,7 +27483,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
@@ -27494,7 +27494,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
@@ -27505,7 +27505,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="D31" s="14" t="s">
         <v>66</v>
@@ -27518,22 +27518,22 @@
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="D33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="D36" t="s">
         <v>80</v>
@@ -27543,7 +27543,7 @@
         <v>-1.7692533442816671</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="D37" t="s">
         <v>81</v>
@@ -27553,7 +27553,7 @@
         <v>1.7011658492936305E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="D38" t="s">
         <v>84</v>
@@ -27563,472 +27563,472 @@
         <v>-5.603367753666662</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -28051,18 +28051,18 @@
       <selection activeCell="A3" sqref="A3:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="12" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="12" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>65</v>
       </c>
@@ -28073,7 +28073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -28123,7 +28123,7 @@
         <v>0.28135627624432508</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>250</v>
       </c>
@@ -28181,7 +28181,7 @@
         <v>0.20362568579676948</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>250</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>0.13371110498790664</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>250</v>
       </c>
@@ -28297,7 +28297,7 @@
         <v>0.16299944110488873</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>350</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>0.16974764092046177</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>350</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>0.18181344412646197</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>350</v>
       </c>
@@ -28449,7 +28449,7 @@
         <v>0.15433808545912239</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>350</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>9.5579847053078856E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>275</v>
       </c>
@@ -28525,7 +28525,7 @@
         <v>0.17140657462876455</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>345</v>
       </c>
@@ -28568,7 +28568,7 @@
         <v>0.58186393791764079</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>275</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>0.23132209905221726</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>345</v>
       </c>
@@ -28670,7 +28670,7 @@
         <v>0.42356802471080757</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -28721,7 +28721,7 @@
         <v>0.26471460324135493</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>0.58968312739262296</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>300</v>
       </c>
@@ -28823,7 +28823,7 @@
         <v>2.7937198635472402E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>400</v>
       </c>
@@ -28874,7 +28874,7 @@
         <v>0.10330398585580382</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>400</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>0.10866111639851066</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>250</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>1.2898708347585885E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>300</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>8.6862001821464377E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>350</v>
       </c>
@@ -28958,7 +28958,7 @@
         <v>0.16737066573609297</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>300</v>
       </c>
@@ -28982,7 +28982,7 @@
         <v>7.1681152968474882E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>300</v>
       </c>
@@ -29008,7 +29008,7 @@
         <v>0.2017272412177698</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>400</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>3.2116845906984916E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>500</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>0.28271996923761894</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>250</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>1.0414806021091181E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>250</v>
       </c>
@@ -29106,7 +29106,7 @@
         <v>2.3386650526836055E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>250</v>
       </c>
@@ -29124,7 +29124,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>150</v>
       </c>
@@ -29140,7 +29140,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>200</v>
       </c>
@@ -29156,7 +29156,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>250</v>
       </c>
@@ -29174,7 +29174,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>300</v>
       </c>
@@ -29182,7 +29182,7 @@
         <v>0.46982201597816298</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>350</v>
       </c>
@@ -29193,7 +29193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>250</v>
       </c>
@@ -29201,7 +29201,7 @@
         <v>1.21563756343506</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>300</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>1.06145247908719</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>350</v>
       </c>
@@ -29224,7 +29224,7 @@
         <v>5.5167582806468607E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>400</v>
       </c>
@@ -29239,7 +29239,7 @@
         <v>1.1354488709751058</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>300</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>-269.68289390156957</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>400</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0.19589965240923299</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>600</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>-0.167491087293763</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>550</v>
       </c>
@@ -29278,7 +29278,7 @@
         <v>-0.60205999132796195</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>550</v>
       </c>
@@ -29286,7 +29286,7 @@
         <v>-0.32221929473391903</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>550</v>
       </c>
@@ -29294,457 +29294,457 @@
         <v>-0.14612803567823801</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -29759,15 +29759,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Metadata xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c756f50-8749-4fdc-9f07-7447a579048a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29780,13 +29778,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Metadata xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c756f50-8749-4fdc-9f07-7447a579048a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30051,12 +30051,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A053A1-EE62-4A95-8CA4-1574A201746E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03254E5-E74A-4167-9A4F-FE37A4FB5E07}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56507e8f-35fa-4488-a198-a86b89e1c54e"/>
-    <ds:schemaRef ds:uri="3c756f50-8749-4fdc-9f07-7447a579048a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30070,9 +30067,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03254E5-E74A-4167-9A4F-FE37A4FB5E07}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A053A1-EE62-4A95-8CA4-1574A201746E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56507e8f-35fa-4488-a198-a86b89e1c54e"/>
+    <ds:schemaRef ds:uri="3c756f50-8749-4fdc-9f07-7447a579048a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Wieke_fig_3_Appendix B.xlsx
+++ b/Wieke_fig_3_Appendix B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/georgios_pampoukis_wur_nl/Documents/PhD components/3rd year/qmra_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{D36996B4-1C6E-4D2E-8CDD-A95053FFA884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C298A9E0-3C07-4CFB-8102-F873A1F3E2DD}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{D36996B4-1C6E-4D2E-8CDD-A95053FFA884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4DBB1C-FD7E-44C1-8787-48C1627717C6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{6B8C3D75-1C7B-4CF6-8EC5-C2501197A7C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{6B8C3D75-1C7B-4CF6-8EC5-C2501197A7C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PATE conf + pred interval" sheetId="4" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1231,12 +1231,310 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00F02BE3-31F0-4ECB-AED5-B4CF269F63A7}"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -14672,36 +14970,32 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8619BD8E-1B9A-4B9A-958B-11A5099D5DE6}" name="Tabel14" displayName="Tabel14" ref="A2:D146" totalsRowShown="0">
   <autoFilter ref="A2:D146" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{54D3DBF5-30B7-4A6F-B722-6F9ACFDA76E6}" name="Food Name"/>
-    <tableColumn id="2" xr3:uid="{4E3C46A8-EA35-4FCF-A914-0DBE3F1600F4}" name="Temperature (C)" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{9ACFCCF1-4065-4E4B-A452-A0A1D5C5C9A7}" name="Growth rate (log/h)" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{3CEE5CBB-5C60-42F5-84EF-720867C1807D}" name="SQRT growth rate (Ѵlog/h)" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{4E3C46A8-EA35-4FCF-A914-0DBE3F1600F4}" name="Temperature (C)" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{9ACFCCF1-4065-4E4B-A452-A0A1D5C5C9A7}" name="Growth rate (log/h)" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{3CEE5CBB-5C60-42F5-84EF-720867C1807D}" name="SQRT growth rate (Ѵlog/h)" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5907C5C6-7CE7-4A51-9862-EB9FB13550EA}" name="Tabel279" displayName="Tabel279" ref="D2:L17" totalsRowShown="0" dataDxfId="21" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5907C5C6-7CE7-4A51-9862-EB9FB13550EA}" name="Tabel279" displayName="Tabel279" ref="D2:L17" totalsRowShown="0" dataDxfId="30" dataCellStyle="Standaard 2">
   <autoFilter ref="D2:L17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4B897DC8-DBF6-4EED-9450-0D767AF780B9}" name="Variable" dataDxfId="20" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{4E14D25E-8CA0-4FA7-BC05-583BD02752D5}" name="40" dataDxfId="19" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{33C6AA46-FD0F-42A5-A7BD-C9837F6BE547}" name="50" dataDxfId="18" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{A52C4118-EDD9-46DD-A1F2-3BF211D05EE4}" name="60" dataDxfId="17" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{44C68122-0AFA-4B98-90CC-191627F029F7}" name="70" dataDxfId="16" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{4679E628-44CB-48DD-89CB-6222CE41512C}" name="80" dataDxfId="15" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{80FB79EF-215E-43F5-B1C5-DC3993BA8227}" name="90" dataDxfId="14" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{3263440B-8100-4E6E-AD13-7B8D0972D3F4}" name="100" dataDxfId="13" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{B55A2DBD-EB01-48AE-9F21-66455846945A}" name="110" dataDxfId="12" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{4B897DC8-DBF6-4EED-9450-0D767AF780B9}" name="Variable" dataDxfId="29" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{4E14D25E-8CA0-4FA7-BC05-583BD02752D5}" name="40" dataDxfId="28" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{33C6AA46-FD0F-42A5-A7BD-C9837F6BE547}" name="50" dataDxfId="27" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{A52C4118-EDD9-46DD-A1F2-3BF211D05EE4}" name="60" dataDxfId="26" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{44C68122-0AFA-4B98-90CC-191627F029F7}" name="70" dataDxfId="25" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{4679E628-44CB-48DD-89CB-6222CE41512C}" name="80" dataDxfId="24" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{80FB79EF-215E-43F5-B1C5-DC3993BA8227}" name="90" dataDxfId="23" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{3263440B-8100-4E6E-AD13-7B8D0972D3F4}" name="100" dataDxfId="22" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{B55A2DBD-EB01-48AE-9F21-66455846945A}" name="110" dataDxfId="21" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14711,44 +15005,60 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{15F3F631-37B1-48FC-B640-77B8B4078AC9}" name="Tabel16810" displayName="Tabel16810" ref="A2:B194" totalsRowShown="0">
   <autoFilter ref="A2:B194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{90B3A7A6-8D1B-45BA-92F4-FB515A91B1DF}" name="Pressure" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{671AB8F3-8862-4DA5-8FBD-E111D172319C}" name="logD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{90B3A7A6-8D1B-45BA-92F4-FB515A91B1DF}" name="Pressure" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{671AB8F3-8862-4DA5-8FBD-E111D172319C}" name="logD" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5650FE4A-FFAB-409D-9BDD-AD05A2FD28D3}" name="Tabel27911" displayName="Tabel27911" ref="D2:L17" totalsRowShown="0" dataDxfId="9" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5650FE4A-FFAB-409D-9BDD-AD05A2FD28D3}" name="Tabel27911" displayName="Tabel27911" ref="D2:L18" totalsRowCount="1" dataDxfId="18" dataCellStyle="Standaard 2">
   <autoFilter ref="D2:L17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C214F877-7692-4504-A9AE-0EDB66BB2F31}" name="Variable" dataDxfId="8" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{59C462F6-6C6B-417C-9DEB-4D6E22FD1940}" name="40" dataDxfId="7" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{3BD7C3DF-55E8-46BF-9337-4A0C1677B610}" name="50" dataDxfId="6" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{0F94E1F2-D2D6-4249-9B6F-5FF00E03F457}" name="60" dataDxfId="5" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{B2E02DDC-CC57-44A8-BC7F-1CC642957552}" name="70" dataDxfId="4" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{8894B8DB-2697-4F35-9F7F-CAE7B6B8C305}" name="80" dataDxfId="3" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{71D59215-80DE-4747-A921-89F75A784E66}" name="90" dataDxfId="2" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{D70C4422-84B0-4381-A837-013D550B761A}" name="100" dataDxfId="1" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{2D90301E-DA13-4FA7-9B6C-8F05A220FBB6}" name="110" dataDxfId="0" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{C214F877-7692-4504-A9AE-0EDB66BB2F31}" name="Variable" dataDxfId="17" totalsRowDxfId="8" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{59C462F6-6C6B-417C-9DEB-4D6E22FD1940}" name="40" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="7" dataCellStyle="Standaard 2">
+      <totalsRowFormula>E17-E16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{3BD7C3DF-55E8-46BF-9337-4A0C1677B610}" name="50" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="6" dataCellStyle="Standaard 2">
+      <totalsRowFormula>F17-F16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{0F94E1F2-D2D6-4249-9B6F-5FF00E03F457}" name="60" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="5" dataCellStyle="Standaard 2">
+      <totalsRowFormula>G17-G16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B2E02DDC-CC57-44A8-BC7F-1CC642957552}" name="70" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="4" dataCellStyle="Standaard 2">
+      <totalsRowFormula>H17-H16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8894B8DB-2697-4F35-9F7F-CAE7B6B8C305}" name="80" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3" dataCellStyle="Standaard 2">
+      <totalsRowFormula>I17-I16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{71D59215-80DE-4747-A921-89F75A784E66}" name="90" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2" dataCellStyle="Standaard 2">
+      <totalsRowFormula>J17-J16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D70C4422-84B0-4381-A837-013D550B761A}" name="100" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="Standaard 2">
+      <totalsRowFormula>K17-K16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2D90301E-DA13-4FA7-9B6C-8F05A220FBB6}" name="110" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="Standaard 2">
+      <totalsRowFormula>L17-L16</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{455C8A90-6BB4-43A2-8E87-B9873E66C671}" name="Tabel25" displayName="Tabel25" ref="F2:N17" totalsRowShown="0" dataDxfId="70" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{455C8A90-6BB4-43A2-8E87-B9873E66C671}" name="Tabel25" displayName="Tabel25" ref="F2:N17" totalsRowShown="0" dataDxfId="79" dataCellStyle="Standaard 2">
   <autoFilter ref="F2:N17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F95E9DE0-5B78-4AF1-89D6-D677F437D335}" name="Variable" dataDxfId="69" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{942B60F3-9A35-46B0-A8E8-CD558E4D8ED1}" name="Temp 0 °C" dataDxfId="68" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{A58038C8-4B9C-4F95-8D10-5A34458EF2B4}" name="Temp 2 °C" dataDxfId="67" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{88A7F05D-F171-4D6B-BDBB-A68690AADCF3}" name="Temp 4 °C" dataDxfId="66" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{73800018-62F2-4948-8DF3-D770E7014463}" name="Temp 6 °C" dataDxfId="65" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{1C031D11-7ECA-4F24-AEBE-90700C4477BA}" name="Temp 8 °C" dataDxfId="64" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{9A71AD08-6CD4-48EA-A378-211B31C3C449}" name="Temp 10 °C" dataDxfId="63" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{687B93F9-53B5-4CB1-A8F8-14BC0CD5F6E8}" name="Temp 12 °C" dataDxfId="62" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{88C01507-BD70-4120-99FD-ACB3ADAEB41A}" name="Temp 15 °C" dataDxfId="61" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{F95E9DE0-5B78-4AF1-89D6-D677F437D335}" name="Variable" dataDxfId="78" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{942B60F3-9A35-46B0-A8E8-CD558E4D8ED1}" name="Temp 0 °C" dataDxfId="77" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{A58038C8-4B9C-4F95-8D10-5A34458EF2B4}" name="Temp 2 °C" dataDxfId="76" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{88A7F05D-F171-4D6B-BDBB-A68690AADCF3}" name="Temp 4 °C" dataDxfId="75" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{73800018-62F2-4948-8DF3-D770E7014463}" name="Temp 6 °C" dataDxfId="74" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{1C031D11-7ECA-4F24-AEBE-90700C4477BA}" name="Temp 8 °C" dataDxfId="73" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{9A71AD08-6CD4-48EA-A378-211B31C3C449}" name="Temp 10 °C" dataDxfId="72" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{687B93F9-53B5-4CB1-A8F8-14BC0CD5F6E8}" name="Temp 12 °C" dataDxfId="71" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{88C01507-BD70-4120-99FD-ACB3ADAEB41A}" name="Temp 15 °C" dataDxfId="70" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14759,27 +15069,27 @@
   <autoFilter ref="A2:D194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8C66E911-68EB-40B6-B055-0C988FBB30F6}" name="Food Name"/>
-    <tableColumn id="2" xr3:uid="{E7EC1BBF-D1F8-401F-BE4A-6011FF1F51CA}" name="Temperature (C)" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{384A3702-2871-44AD-85DE-D2736F7D9286}" name="Growth rate (log/h)" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{130F8A13-671D-4B7D-810D-FEBF594890DF}" name="SQRT growth rate (Ѵlog/h)" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{E7EC1BBF-D1F8-401F-BE4A-6011FF1F51CA}" name="Temperature (C)" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{384A3702-2871-44AD-85DE-D2736F7D9286}" name="Growth rate (log/h)" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{130F8A13-671D-4B7D-810D-FEBF594890DF}" name="SQRT growth rate (Ѵlog/h)" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}" name="Tabel2" displayName="Tabel2" ref="F2:N17" totalsRowShown="0" dataDxfId="57" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}" name="Tabel2" displayName="Tabel2" ref="F2:N17" totalsRowShown="0" dataDxfId="66" dataCellStyle="Standaard 2">
   <autoFilter ref="F2:N17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{035709CE-790F-4C5F-BEB9-DBB34ABB826B}" name="Variable" dataDxfId="56" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{83944CAA-0289-4A20-9FE4-F2765B920A85}" name="Temp 0 °C" dataDxfId="55" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{8F7B84E3-1907-4FCD-BFA5-6540031DC902}" name="Temp 2 °C" dataDxfId="54" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{0E9DB7D2-78DB-4E76-AB6A-62F46C39A428}" name="Temp 4 °C" dataDxfId="53" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{37F7A9FD-62FF-434D-98F5-4BFD617AE54F}" name="Temp 6 °C" dataDxfId="52" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{65F32950-8616-4951-9160-0C0AA5EA828C}" name="Temp 8 °C" dataDxfId="51" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{D646EEA0-11BA-471C-8F98-1406BF32A341}" name="Temp 10 °C" dataDxfId="50" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{B1DA37C4-9D47-4F29-B5F9-A42BED203B08}" name="Temp 12 °C" dataDxfId="49" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{047D8A2B-C561-4AEC-926D-E3D88518D861}" name="Temp 15 °C" dataDxfId="48" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{035709CE-790F-4C5F-BEB9-DBB34ABB826B}" name="Variable" dataDxfId="65" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{83944CAA-0289-4A20-9FE4-F2765B920A85}" name="Temp 0 °C" dataDxfId="64" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{8F7B84E3-1907-4FCD-BFA5-6540031DC902}" name="Temp 2 °C" dataDxfId="63" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{0E9DB7D2-78DB-4E76-AB6A-62F46C39A428}" name="Temp 4 °C" dataDxfId="62" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{37F7A9FD-62FF-434D-98F5-4BFD617AE54F}" name="Temp 6 °C" dataDxfId="61" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{65F32950-8616-4951-9160-0C0AA5EA828C}" name="Temp 8 °C" dataDxfId="60" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{D646EEA0-11BA-471C-8F98-1406BF32A341}" name="Temp 10 °C" dataDxfId="59" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{B1DA37C4-9D47-4F29-B5F9-A42BED203B08}" name="Temp 12 °C" dataDxfId="58" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{047D8A2B-C561-4AEC-926D-E3D88518D861}" name="Temp 15 °C" dataDxfId="57" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14789,26 +15099,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{785BC3FA-E334-46A6-B09F-D40C72E5A048}" name="Tabel16" displayName="Tabel16" ref="A2:B194" totalsRowShown="0">
   <autoFilter ref="A2:B194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{EAF7A9DA-34F8-45FD-B5C5-F9396562DBA7}" name="est_energy_input_2_J_ml" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{1C068A37-D51F-49CD-B5A1-57199FEFF74A}" name="microbial reductions" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{EAF7A9DA-34F8-45FD-B5C5-F9396562DBA7}" name="est_energy_input_2_J_ml" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{1C068A37-D51F-49CD-B5A1-57199FEFF74A}" name="microbial reductions" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{66827230-A921-4D28-8D5B-41310F19AA3F}" name="Tabel27" displayName="Tabel27" ref="D2:L17" totalsRowShown="0" dataDxfId="45" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{66827230-A921-4D28-8D5B-41310F19AA3F}" name="Tabel27" displayName="Tabel27" ref="D2:L17" totalsRowShown="0" dataDxfId="54" dataCellStyle="Standaard 2">
   <autoFilter ref="D2:L17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A5860E1B-5367-4335-B67D-ED49DEE96F46}" name="Variable" dataDxfId="44" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{5BE219F4-FB48-46DE-AA66-C00BB8977CE7}" name="20 kJ/L" dataDxfId="43" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{12C25FA0-AE90-43E2-84E5-2E9C89BA83E5}" name="40 kJ/L" dataDxfId="42" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{FE8EA9C4-FE6C-4B7E-99AE-154DF02AA39D}" name="60 kJ/L" dataDxfId="41" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{9B859BDE-0C12-46A5-A0C8-388B1A995702}" name="80 kJ/L" dataDxfId="40" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{BAFB59E3-BA1B-4F38-9EFC-8323B0D5AB42}" name="100 kJ/L" dataDxfId="39" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{87B06D31-9E5D-4E7B-A32E-8D2D4BE38EF0}" name="120 kJ/L" dataDxfId="38" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{6806E045-4B9F-47E9-9427-9F49B0F305FD}" name="160 kJ/L" dataDxfId="37" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{6CBD3B67-37CC-4673-8029-13E10FB7A0C2}" name="200 kJ/L" dataDxfId="36" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{A5860E1B-5367-4335-B67D-ED49DEE96F46}" name="Variable" dataDxfId="53" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{5BE219F4-FB48-46DE-AA66-C00BB8977CE7}" name="20 kJ/L" dataDxfId="52" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{12C25FA0-AE90-43E2-84E5-2E9C89BA83E5}" name="40 kJ/L" dataDxfId="51" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{FE8EA9C4-FE6C-4B7E-99AE-154DF02AA39D}" name="60 kJ/L" dataDxfId="50" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{9B859BDE-0C12-46A5-A0C8-388B1A995702}" name="80 kJ/L" dataDxfId="49" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{BAFB59E3-BA1B-4F38-9EFC-8323B0D5AB42}" name="100 kJ/L" dataDxfId="48" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{87B06D31-9E5D-4E7B-A32E-8D2D4BE38EF0}" name="120 kJ/L" dataDxfId="47" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{6806E045-4B9F-47E9-9427-9F49B0F305FD}" name="160 kJ/L" dataDxfId="46" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{6CBD3B67-37CC-4673-8029-13E10FB7A0C2}" name="200 kJ/L" dataDxfId="45" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14818,26 +15128,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{53664E5F-FC6A-4800-BF4D-6D832E15718F}" name="Tabel1612" displayName="Tabel1612" ref="A2:B194" totalsRowShown="0">
   <autoFilter ref="A2:B194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{15B8ABD3-5D73-4DE3-92E3-2C6FCB67F95B}" name="est_energy_input_2_J_ml" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{5A907068-15E6-4A89-A4D5-F28FCA63BCBC}" name="microbial reductions" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{15B8ABD3-5D73-4DE3-92E3-2C6FCB67F95B}" name="est_energy_input_2_J_ml" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{5A907068-15E6-4A89-A4D5-F28FCA63BCBC}" name="microbial reductions" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{26B835BA-7321-4214-88E4-047C977F032E}" name="Tabel2713" displayName="Tabel2713" ref="D2:L17" totalsRowShown="0" dataDxfId="33" dataCellStyle="Standaard 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{26B835BA-7321-4214-88E4-047C977F032E}" name="Tabel2713" displayName="Tabel2713" ref="D2:L17" totalsRowShown="0" dataDxfId="42" dataCellStyle="Standaard 2">
   <autoFilter ref="D2:L17" xr:uid="{3CE93F3B-14FD-4912-B347-0D1AF0DE2ECF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{67288AB3-AA1E-457A-AA60-D1D37018950C}" name="Variable" dataDxfId="32" dataCellStyle="Standaard 2"/>
-    <tableColumn id="2" xr3:uid="{B39D16DF-A2C2-4D59-9D88-278980E8C290}" name="20 kJ/L" dataDxfId="31" dataCellStyle="Standaard 2"/>
-    <tableColumn id="3" xr3:uid="{DEF90415-0040-4109-9B46-6F24E32E2088}" name="40 kJ/L" dataDxfId="30" dataCellStyle="Standaard 2"/>
-    <tableColumn id="4" xr3:uid="{2FB8629E-0323-4964-AB8A-DB30969C5B43}" name="60 kJ/L" dataDxfId="29" dataCellStyle="Standaard 2"/>
-    <tableColumn id="5" xr3:uid="{E074050C-AF1D-4720-860C-E43FC5D4709B}" name="80 kJ/L" dataDxfId="28" dataCellStyle="Standaard 2"/>
-    <tableColumn id="6" xr3:uid="{623C8065-D382-43D0-84C5-C8C7D9F38051}" name="100 kJ/L" dataDxfId="27" dataCellStyle="Standaard 2"/>
-    <tableColumn id="7" xr3:uid="{18D9BDA9-7BF9-40B7-9C16-E268D01C1EB1}" name="120 kJ/L" dataDxfId="26" dataCellStyle="Standaard 2"/>
-    <tableColumn id="8" xr3:uid="{DAD3605C-16DE-4F4B-A465-249D9F55534B}" name="160 kJ/L" dataDxfId="25" dataCellStyle="Standaard 2"/>
-    <tableColumn id="9" xr3:uid="{4234EB74-A18D-467D-8BFC-EDA0D9936100}" name="200 kJ/L" dataDxfId="24" dataCellStyle="Standaard 2"/>
+    <tableColumn id="1" xr3:uid="{67288AB3-AA1E-457A-AA60-D1D37018950C}" name="Variable" dataDxfId="41" dataCellStyle="Standaard 2"/>
+    <tableColumn id="2" xr3:uid="{B39D16DF-A2C2-4D59-9D88-278980E8C290}" name="20 kJ/L" dataDxfId="40" dataCellStyle="Standaard 2"/>
+    <tableColumn id="3" xr3:uid="{DEF90415-0040-4109-9B46-6F24E32E2088}" name="40 kJ/L" dataDxfId="39" dataCellStyle="Standaard 2"/>
+    <tableColumn id="4" xr3:uid="{2FB8629E-0323-4964-AB8A-DB30969C5B43}" name="60 kJ/L" dataDxfId="38" dataCellStyle="Standaard 2"/>
+    <tableColumn id="5" xr3:uid="{E074050C-AF1D-4720-860C-E43FC5D4709B}" name="80 kJ/L" dataDxfId="37" dataCellStyle="Standaard 2"/>
+    <tableColumn id="6" xr3:uid="{623C8065-D382-43D0-84C5-C8C7D9F38051}" name="100 kJ/L" dataDxfId="36" dataCellStyle="Standaard 2"/>
+    <tableColumn id="7" xr3:uid="{18D9BDA9-7BF9-40B7-9C16-E268D01C1EB1}" name="120 kJ/L" dataDxfId="35" dataCellStyle="Standaard 2"/>
+    <tableColumn id="8" xr3:uid="{DAD3605C-16DE-4F4B-A465-249D9F55534B}" name="160 kJ/L" dataDxfId="34" dataCellStyle="Standaard 2"/>
+    <tableColumn id="9" xr3:uid="{4234EB74-A18D-467D-8BFC-EDA0D9936100}" name="200 kJ/L" dataDxfId="33" dataCellStyle="Standaard 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14847,8 +15157,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B7875D1F-170B-43EE-9F58-F91E90A6E967}" name="Tabel168" displayName="Tabel168" ref="A2:B194" totalsRowShown="0">
   <autoFilter ref="A2:B194" xr:uid="{9828350D-CB71-4C20-A925-F2A2A0F824CD}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{0A1ED375-684F-4614-AD5A-85A527155E94}" name="Temperature C" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{9B79C9B8-CB5F-4CFB-8FBF-D06F0242259E}" name="logD" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{0A1ED375-684F-4614-AD5A-85A527155E94}" name="Temperature C" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{9B79C9B8-CB5F-4CFB-8FBF-D06F0242259E}" name="logD" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15157,18 +15467,18 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="47" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1"/>
-    <col min="7" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="14" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -15176,7 +15486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15217,7 +15527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -15266,7 +15576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -15315,7 +15625,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -15364,7 +15674,7 @@
         <v>7.125</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -15413,7 +15723,7 @@
         <v>1.4468425488402914E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -15462,7 +15772,7 @@
         <v>3291.75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -15503,7 +15813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -15526,7 +15836,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -15575,7 +15885,7 @@
         <v>0.2815366920645001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -15616,7 +15926,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -15665,7 +15975,7 @@
         <v>2.3232596170053954E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -15714,7 +16024,7 @@
         <v>1.465376645649422E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -15763,7 +16073,7 @@
         <v>0.27698310321516956</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -15812,7 +16122,7 @@
         <v>0.28609028091383065</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -15861,7 +16171,7 @@
         <v>0.25281530980977146</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -15910,7 +16220,7 @@
         <v>0.31025807431922875</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -15924,7 +16234,7 @@
         <v>6.3639610306789274E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -15948,7 +16258,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -15972,7 +16282,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -15994,7 +16304,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -16018,7 +16328,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -16040,7 +16350,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -16062,7 +16372,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -16086,7 +16396,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -16108,7 +16418,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -16132,7 +16442,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -16154,7 +16464,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -16176,7 +16486,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -16200,7 +16510,7 @@
       <c r="L30" s="15"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -16214,7 +16524,7 @@
         <v>6.7230945255886437E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -16228,7 +16538,7 @@
         <v>7.5762787699503245E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -16242,7 +16552,7 @@
         <v>7.8549347546621934E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -16256,7 +16566,7 @@
         <v>7.8866976612521414E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -16270,7 +16580,7 @@
         <v>7.4899933244296016E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -16284,7 +16594,7 @@
         <v>7.1274118724821853E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -16298,7 +16608,7 @@
         <v>6.5878676368002417E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -16312,7 +16622,7 @@
         <v>6.4420493633625633E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -16326,7 +16636,7 @@
         <v>0.10770329614269007</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -16340,7 +16650,7 @@
         <v>0.10246950765959599</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -16354,7 +16664,7 @@
         <v>9.5341491492424227E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -16368,7 +16678,7 @@
         <v>9.6228893789755257E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -16382,7 +16692,7 @@
         <v>9.2466210044534647E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -16396,7 +16706,7 @@
         <v>0.10099504938362078</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -16410,7 +16720,7 @@
         <v>9.5655632348544961E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -16424,7 +16734,7 @@
         <v>0.11916375287812986</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -16438,7 +16748,7 @@
         <v>9.7928545378760737E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -16452,7 +16762,7 @@
         <v>9.2897793299948739E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -16466,7 +16776,7 @@
         <v>9.2520268049763016E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -16480,7 +16790,7 @@
         <v>0.1044030650891055</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -16494,7 +16804,7 @@
         <v>0.10344080432788601</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -16508,7 +16818,7 @@
         <v>0.10770329614269007</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -16522,7 +16832,7 @@
         <v>0.11090536506409417</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -16536,7 +16846,7 @@
         <v>9.823441352194251E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -16550,7 +16860,7 @@
         <v>0.10198039027185569</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -16564,7 +16874,7 @@
         <v>0.10583005244258362</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -16578,7 +16888,7 @@
         <v>0.11313708498984761</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -16592,7 +16902,7 @@
         <v>0.12806248474865697</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -16606,7 +16916,7 @@
         <v>0.12609520212918493</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -16620,7 +16930,7 @@
         <v>0.13490737563232041</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -16634,7 +16944,7 @@
         <v>0.12409673645990857</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -16648,7 +16958,7 @@
         <v>0.12041594578792296</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -16662,7 +16972,7 @@
         <v>0.13379088160259653</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -16676,7 +16986,7 @@
         <v>0.14491376746189438</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -16690,7 +17000,7 @@
         <v>0.13379088160259653</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -16704,7 +17014,7 @@
         <v>0.14798648586948743</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -16718,7 +17028,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -16732,7 +17042,7 @@
         <v>0.12409673645990857</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -16746,7 +17056,7 @@
         <v>0.116619037896906</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -16760,7 +17070,7 @@
         <v>0.13416407864998739</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -16774,7 +17084,7 @@
         <v>0.12328828005937953</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -16788,7 +17098,7 @@
         <v>0.13711309200802088</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -16802,7 +17112,7 @@
         <v>0.13490737563232041</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -16816,7 +17126,7 @@
         <v>0.13038404810405299</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -16830,7 +17140,7 @@
         <v>0.16462077633154329</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -16844,7 +17154,7 @@
         <v>0.17320508075688773</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -16858,7 +17168,7 @@
         <v>0.17117242768623689</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -16872,7 +17182,7 @@
         <v>0.17888543819998318</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -16886,7 +17196,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -16900,7 +17210,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -16914,7 +17224,7 @@
         <v>0.13674794331177342</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -16928,7 +17238,7 @@
         <v>0.14764823060233401</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -16942,7 +17252,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -16956,7 +17266,7 @@
         <v>0.16792855623746664</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -16970,7 +17280,7 @@
         <v>0.16186414056238646</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -16984,7 +17294,7 @@
         <v>0.17029386365926402</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -16998,7 +17308,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -17012,7 +17322,7 @@
         <v>0.18708286933869708</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -17026,7 +17336,7 @@
         <v>0.15491933384829668</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -17040,7 +17350,7 @@
         <v>0.16431676725154984</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -17054,7 +17364,7 @@
         <v>0.18627936010197158</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -17068,7 +17378,7 @@
         <v>0.18708286933869708</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -17082,7 +17392,7 @@
         <v>0.1905255888325765</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -17096,7 +17406,7 @@
         <v>0.19570385790780928</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -17110,7 +17420,7 @@
         <v>0.18547236990991409</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -17124,7 +17434,7 @@
         <v>0.19261360284258222</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -17138,7 +17448,7 @@
         <v>0.19183326093250877</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -17152,7 +17462,7 @@
         <v>0.19949937343260005</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -17166,7 +17476,7 @@
         <v>0.19595917942265423</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -17180,7 +17490,7 @@
         <v>0.21587033144922904</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -17194,7 +17504,7 @@
         <v>0.19390719429665315</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -17208,7 +17518,7 @@
         <v>0.20346989949375804</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -17222,7 +17532,7 @@
         <v>0.18520259177452134</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -17236,7 +17546,7 @@
         <v>0.2240535650240808</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -17250,7 +17560,7 @@
         <v>0.2073644135332772</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -17264,7 +17574,7 @@
         <v>0.2102379604162864</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -17278,7 +17588,7 @@
         <v>0.20297783130184438</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -17292,7 +17602,7 @@
         <v>0.19519221295943134</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -17306,7 +17616,7 @@
         <v>0.1772004514666935</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -17320,7 +17630,7 @@
         <v>0.18220867158288598</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -17334,7 +17644,7 @@
         <v>0.26702059845637377</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -17348,7 +17658,7 @@
         <v>0.25436194683953806</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -17362,7 +17672,7 @@
         <v>0.2483948469674844</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -17376,7 +17686,7 @@
         <v>0.27982137159266446</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -17390,7 +17700,7 @@
         <v>0.24020824298928628</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -17404,7 +17714,7 @@
         <v>0.22715633383201095</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -17418,7 +17728,7 @@
         <v>0.2137755832643195</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -17432,7 +17742,7 @@
         <v>0.25436194683953806</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -17446,7 +17756,7 @@
         <v>0.26664583251946766</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -17460,7 +17770,7 @@
         <v>0.26115129714401192</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -17474,7 +17784,7 @@
         <v>0.23579652245103191</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -17488,7 +17798,7 @@
         <v>0.232379000772445</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -17502,7 +17812,7 @@
         <v>0.24186773244895649</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -17516,7 +17826,7 @@
         <v>0.23916521486202796</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -17530,7 +17840,7 @@
         <v>0.2515949125081825</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -17544,7 +17854,7 @@
         <v>0.23853720883753127</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -17558,7 +17868,7 @@
         <v>0.25377155080899039</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -17572,7 +17882,7 @@
         <v>0.261725046566048</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -17586,7 +17896,7 @@
         <v>0.28913664589601917</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -17600,7 +17910,7 @@
         <v>0.27422618401604176</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -17614,7 +17924,7 @@
         <v>0.28913664589601917</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -17628,7 +17938,7 @@
         <v>0.26038433132583072</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -17642,7 +17952,7 @@
         <v>0.31208973068654472</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -17656,7 +17966,7 @@
         <v>0.25238858928247926</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -17670,7 +17980,7 @@
         <v>0.24556058315617349</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -17684,7 +17994,7 @@
         <v>0.24738633753705963</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -17698,7 +18008,7 @@
         <v>0.28354893757515648</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -17712,7 +18022,7 @@
         <v>0.28861739379323625</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -17726,7 +18036,7 @@
         <v>0.2861817604250837</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -17740,7 +18050,7 @@
         <v>0.27910571473905726</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -17754,7 +18064,7 @@
         <v>0.29171904291629641</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -17768,7 +18078,7 @@
         <v>0.28213471959331771</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -17782,7 +18092,7 @@
         <v>0.31208973068654472</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -17796,7 +18106,7 @@
         <v>0.27258026340878022</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -17810,7 +18120,7 @@
         <v>0.27055498516937365</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -17843,19 +18153,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="47" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1"/>
-    <col min="7" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="14" width="12.88671875" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="14" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -17869,7 +18179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17925,7 +18235,7 @@
         <v>9.9544660085439996E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17989,7 +18299,7 @@
         <v>1.025004806046576E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18053,7 +18363,7 @@
         <v>9.0019536341341103E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -18117,7 +18427,7 @@
         <v>4.6809715683276834E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -18181,7 +18491,7 @@
         <v>1.3567921026757595E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -18238,7 +18548,7 @@
         <v>1.3032704962756734E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -18287,7 +18597,7 @@
         <v>3.3318288499701859E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -18318,7 +18628,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -18375,7 +18685,7 @@
         <v>1.5782781649195549E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -18424,7 +18734,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -18481,7 +18791,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -18538,7 +18848,7 @@
         <v>9.6306486147918358E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -18595,7 +18905,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -18652,7 +18962,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -18709,7 +19019,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -18766,7 +19076,7 @@
         <v>4.6152161310375304E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -18788,7 +19098,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -18820,7 +19130,7 @@
         <v>9.5796181937334932E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -18852,7 +19162,7 @@
         <v>6.1641530195817237E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -18882,7 +19192,7 @@
         <v>4.2888912553229735E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -18914,7 +19224,7 @@
         <v>8.8565775998219098E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -18944,7 +19254,7 @@
         <v>8.2783947120528044E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -18974,7 +19284,7 @@
         <v>1.1668661452380398E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -19006,7 +19316,7 @@
         <v>9.0019536341341103E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -19036,7 +19346,7 @@
         <v>3.0627230464644041E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -19068,7 +19378,7 @@
         <v>3.4274648411752244E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -19098,7 +19408,7 @@
         <v>1.9828028878137339E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -19128,7 +19438,7 @@
         <v>1.9828028878137339E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -19160,7 +19470,7 @@
         <v>2.0855924069358635E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -19182,7 +19492,7 @@
         <v>6.2227822333475139E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -19204,7 +19514,7 @@
         <v>1.5218473157207861E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -19226,7 +19536,7 @@
         <v>3.5208531829207756E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -19248,7 +19558,7 @@
         <v>3.3043022248081485E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -19270,7 +19580,7 @@
         <v>2.9150288578742156E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -19292,7 +19602,7 @@
         <v>8.3562825571939872E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -19314,7 +19624,7 @@
         <v>9.338515707278456E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -19336,7 +19646,7 @@
         <v>2.9150288578742156E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -19358,7 +19668,7 @@
         <v>3.3965281748648174E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -19380,7 +19690,7 @@
         <v>1.7344412397446145E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -19402,7 +19712,7 @@
         <v>6.1100258280036204E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -19424,7 +19734,7 @@
         <v>2.3508491647365249E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -19446,7 +19756,7 @@
         <v>3.6784042800406625E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -19468,7 +19778,7 @@
         <v>2.8566760001859435E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -19490,7 +19800,7 @@
         <v>2.5433393441059402E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -19512,7 +19822,7 @@
         <v>1.1503551084649201E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -19534,7 +19844,7 @@
         <v>1.298397831086748E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -19556,7 +19866,7 @@
         <v>3.122516078382514E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -19578,7 +19888,7 @@
         <v>4.5343143121331648E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -19600,7 +19910,7 @@
         <v>2.5080251221084031E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -19622,7 +19932,7 @@
         <v>2.5080251221084031E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -19644,7 +19954,7 @@
         <v>4.9802663193286632E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -19666,7 +19976,7 @@
         <v>5.7831705956760717E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -19688,7 +19998,7 @@
         <v>1.3213156170710668E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -19710,7 +20020,7 @@
         <v>8.3091028948315758E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -19732,7 +20042,7 @@
         <v>3.9070169926479838E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -19754,7 +20064,7 @@
         <v>5.6692378771299335E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +20086,7 @@
         <v>4.2633510451096853E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -19798,7 +20108,7 @@
         <v>4.3455211662476941E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -19820,7 +20130,7 @@
         <v>5.2307257098975935E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -19842,7 +20152,7 @@
         <v>5.2307257098975935E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -19864,7 +20174,7 @@
         <v>3.608071541116664E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -19886,7 +20196,7 @@
         <v>2.7132910952872491E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -19908,7 +20218,7 @@
         <v>6.6858979981079206E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -19930,7 +20240,7 @@
         <v>2.7132910952872491E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -19952,7 +20262,7 @@
         <v>5.9765045578062637E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -19974,7 +20284,7 @@
         <v>3.8307428569724821E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -19996,7 +20306,7 @@
         <v>5.4223831330305083E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -20018,7 +20328,7 @@
         <v>2.4512780533784224E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -20040,7 +20350,7 @@
         <v>1.2880194080841392E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -20062,7 +20372,7 @@
         <v>1.277908611044566E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -20084,7 +20394,7 @@
         <v>8.7208108976342719E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -20106,7 +20416,7 @@
         <v>8.7918522003354476E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -20128,7 +20438,7 @@
         <v>4.7882849071668815E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -20150,7 +20460,7 @@
         <v>7.3982566368659597E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -20172,7 +20482,7 @@
         <v>7.5312801240339904E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -20194,7 +20504,7 @@
         <v>1.9648400887811948E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -20216,7 +20526,7 @@
         <v>3.3712763546210665E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -20238,7 +20548,7 @@
         <v>8.4009577258945358E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -20260,7 +20570,7 @@
         <v>1.05952418972735E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -20282,7 +20592,7 @@
         <v>4.4902091938636886E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -20304,7 +20614,7 @@
         <v>1.0360288941023382E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -20326,7 +20636,7 @@
         <v>1.2566921356929278E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -20348,7 +20658,7 @@
         <v>1.858887868167725E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -20370,7 +20680,7 @@
         <v>1.2729342463798977E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -20392,7 +20702,7 @@
         <v>2.3696871416377528E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -20414,7 +20724,7 @@
         <v>2.7371294384752336E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -20436,7 +20746,7 @@
         <v>1.192435826132046E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -20458,7 +20768,7 @@
         <v>1.2814006856684155E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -20480,7 +20790,7 @@
         <v>3.0510129630127936E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -20502,7 +20812,7 @@
         <v>4.6512521816153837E-6</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -20524,7 +20834,7 @@
         <v>1.3947303468668293E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -20546,7 +20856,7 @@
         <v>1.3295928172606222E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -20568,7 +20878,7 @@
         <v>3.5995877668607701E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -20590,7 +20900,7 @@
         <v>3.9558055094667845E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -20612,7 +20922,7 @@
         <v>2.6319165513872666E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -20634,7 +20944,7 @@
         <v>2.2145302410347628E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -20656,7 +20966,7 @@
         <v>2.7974681811747734E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -20678,7 +20988,7 @@
         <v>9.6167589174561937E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -20700,7 +21010,7 @@
         <v>6.222101808368173E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -20722,7 +21032,7 @@
         <v>5.0006184604718402E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -20744,7 +21054,7 @@
         <v>5.1470862993150692E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -20766,7 +21076,7 @@
         <v>1.9593107448075391E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -20788,7 +21098,7 @@
         <v>5.8557468032380528E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -20810,7 +21120,7 @@
         <v>1.2562334248806989E-8</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -20832,7 +21142,7 @@
         <v>1.9716071983397381E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -20854,7 +21164,7 @@
         <v>2.2599116271742639E-5</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -20876,7 +21186,7 @@
         <v>4.1305378660749654E-6</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -20898,7 +21208,7 @@
         <v>2.2599116271742639E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -20920,7 +21230,7 @@
         <v>4.3291599568034275E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -20942,7 +21252,7 @@
         <v>2.6683941743849399E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -20964,7 +21274,7 @@
         <v>8.9333129872312415E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -20986,7 +21296,7 @@
         <v>1.4202342950089244E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -21008,7 +21318,7 @@
         <v>6.4369017864172266E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -21030,7 +21340,7 @@
         <v>2.5754941964142223E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -21052,7 +21362,7 @@
         <v>4.3291599568034275E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -21074,7 +21384,7 @@
         <v>1.0541400931059789E-6</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -21096,7 +21406,7 @@
         <v>7.8878212069597342E-6</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -21118,7 +21428,7 @@
         <v>3.0944759479412378E-5</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -21140,7 +21450,7 @@
         <v>1.0879308915457995E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -21162,7 +21472,7 @@
         <v>1.0879308915457995E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -21184,7 +21494,7 @@
         <v>6.7556445074398481E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -21206,7 +21516,7 @@
         <v>1.0769416731664866E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -21228,7 +21538,7 @@
         <v>8.1819589113698676E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -21250,7 +21560,7 @@
         <v>6.7556445074398481E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -21272,7 +21582,7 @@
         <v>1.1553129399685866E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -21294,7 +21604,7 @@
         <v>1.1026803117669746E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -21316,7 +21626,7 @@
         <v>3.8004124217085608E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -21338,7 +21648,7 @@
         <v>3.272808312397057E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -21360,7 +21670,7 @@
         <v>1.2372041668938496E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -21382,7 +21692,7 @@
         <v>1.5369190485002267E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -21404,7 +21714,7 @@
         <v>1.1553129399685866E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -21426,7 +21736,7 @@
         <v>1.182214061534823E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -21448,7 +21758,7 @@
         <v>9.0723517098038257E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -21470,7 +21780,7 @@
         <v>9.3038097048941438E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -21492,7 +21802,7 @@
         <v>1.1026803117669746E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -21514,7 +21824,7 @@
         <v>1.2372041668938496E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -21536,7 +21846,7 @@
         <v>1.9555955594959145E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -21558,7 +21868,7 @@
         <v>1.8810309820969406E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -21580,7 +21890,7 @@
         <v>1.4735662229251017E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -21602,7 +21912,7 @@
         <v>2.5634330940644179E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -21624,7 +21934,7 @@
         <v>5.785653243959351E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -21646,7 +21956,7 @@
         <v>2.4913902287339181E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -21668,7 +21978,7 @@
         <v>1.182214061534823E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -21690,7 +22000,7 @@
         <v>1.0515834869208366E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -21712,7 +22022,7 @@
         <v>8.9704022090076073E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -21734,7 +22044,7 @@
         <v>7.7348758268955113E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -21756,7 +22066,7 @@
         <v>2.4349200592488463E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -21778,7 +22088,7 @@
         <v>8.5045252412775289E-5</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -21800,7 +22110,7 @@
         <v>3.2425626604882092E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -21822,7 +22132,7 @@
         <v>1.0451913638971821E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -21844,7 +22154,7 @@
         <v>2.4969392739843093E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -21866,7 +22176,7 @@
         <v>3.6154494740656775E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -21888,7 +22198,7 @@
         <v>3.946987219565175E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -21910,7 +22220,7 @@
         <v>1.6716941931996711E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -21932,7 +22242,7 @@
         <v>2.3536273974340298E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -21954,7 +22264,7 @@
         <v>1.8261440992400175E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -21976,7 +22286,7 @@
         <v>4.9628739683167519E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -21998,7 +22308,7 @@
         <v>2.8151997729665076E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -22020,7 +22330,7 @@
         <v>3.9055216013035997E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -22042,7 +22352,7 @@
         <v>2.9688044302996048E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -22064,7 +22374,7 @@
         <v>5.6253832509036753E-6</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -22086,7 +22396,7 @@
         <v>5.7654265625400091E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -22108,7 +22418,7 @@
         <v>4.696394187148986E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -22130,7 +22440,7 @@
         <v>3.1709275714181242E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -22152,7 +22462,7 @@
         <v>3.1029804505661646E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -22174,7 +22484,7 @@
         <v>7.2344129424368553E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -22196,7 +22506,7 @@
         <v>1.5470657053100827E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -22218,7 +22528,7 @@
         <v>3.4483463028169479E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -22240,7 +22550,7 @@
         <v>2.1050966886709219E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -22262,7 +22572,7 @@
         <v>1.2262627205156912E-5</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -22284,7 +22594,7 @@
         <v>3.1296204999130793E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -22306,7 +22616,7 @@
         <v>3.4220495486921212E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -22328,7 +22638,7 @@
         <v>8.8761815179403574E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -22350,7 +22660,7 @@
         <v>3.0534268920136489E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -22372,7 +22682,7 @@
         <v>1.3572027624213637E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -22394,7 +22704,7 @@
         <v>9.7918866703568816E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -22416,7 +22726,7 @@
         <v>1.8639942333301695E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -22438,7 +22748,7 @@
         <v>7.9128744657424865E-8</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -22460,7 +22770,7 @@
         <v>3.3461550818434101E-5</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -22482,7 +22792,7 @@
         <v>1.9734566108788225E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -22504,7 +22814,7 @@
         <v>1.8787158303253408E-5</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -22526,7 +22836,7 @@
         <v>8.4222252533781244E-7</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -22548,7 +22858,7 @@
         <v>3.0146909380810803E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -22570,7 +22880,7 @@
         <v>3.2314891236182959E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -22592,7 +22902,7 @@
         <v>8.6484011502859122E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -22614,7 +22924,7 @@
         <v>4.5573369437882776E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -22636,7 +22946,7 @@
         <v>7.5535060867325352E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -22658,7 +22968,7 @@
         <v>1.249046928171796E-7</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -22680,7 +22990,7 @@
         <v>4.3610722605907974E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -22702,7 +23012,7 @@
         <v>1.5294137411964124E-5</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -22724,7 +23034,7 @@
         <v>1.4431596089821937E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -22746,7 +23056,7 @@
         <v>6.0662053882674591E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -22779,18 +23089,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="12" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>59</v>
       </c>
@@ -22801,7 +23111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -22851,7 +23161,7 @@
         <v>6.6121911247567387E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>187.849999999999</v>
       </c>
@@ -22909,7 +23219,7 @@
         <v>8.3754978316147473E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>146.25</v>
       </c>
@@ -22967,7 +23277,7 @@
         <v>0.71114134972295973</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>124.27</v>
       </c>
@@ -23025,7 +23335,7 @@
         <v>0.21198133337745786</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>109.849999999999</v>
       </c>
@@ -23083,7 +23393,7 @@
         <v>1.1552935594603111</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>96.749999999999901</v>
       </c>
@@ -23134,7 +23444,7 @@
         <v>0.90841139218927758</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>78.649999999999906</v>
       </c>
@@ -23177,7 +23487,7 @@
         <v>1.5158668772330917</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>72.669999999999902</v>
       </c>
@@ -23202,7 +23512,7 @@
         <v>2.7126619565021453</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>52.649999999999899</v>
       </c>
@@ -23253,7 +23563,7 @@
         <v>0.76103090169293108</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>52.029999999999902</v>
       </c>
@@ -23296,7 +23606,7 @@
         <v>0.4334142057181134</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34.83</v>
       </c>
@@ -23347,7 +23657,7 @@
         <v>2.5803142062610873</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>128.99249999999901</v>
       </c>
@@ -23398,7 +23708,7 @@
         <v>0.64622634336985951</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>94.77</v>
       </c>
@@ -23449,7 +23759,7 @@
         <v>1.8709822225130188</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76.44</v>
       </c>
@@ -23500,7 +23810,7 @@
         <v>0.13246928962700164</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65.8125</v>
       </c>
@@ -23551,7 +23861,7 @@
         <v>0.46706504781157115</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56.16</v>
       </c>
@@ -23602,7 +23912,7 @@
         <v>0.16804361187481784</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>39</v>
       </c>
@@ -23618,7 +23928,7 @@
         <v>1.136057838099104E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23.8874999999999</v>
       </c>
@@ -23644,7 +23954,7 @@
         <v>0.17952640525636837</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17.549999999999901</v>
       </c>
@@ -23670,7 +23980,7 @@
         <v>0.31533680158329125</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>134.15625</v>
       </c>
@@ -23694,7 +24004,7 @@
         <v>0.87923169498021636</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>133.596</v>
       </c>
@@ -23720,7 +24030,7 @@
         <v>0.16233036022583794</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>132.19200000000001</v>
       </c>
@@ -23744,7 +24054,7 @@
         <v>0.92041754439980883</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>120.744</v>
       </c>
@@ -23768,7 +24078,7 @@
         <v>1.5848263691675565E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>118.58399999999899</v>
       </c>
@@ -23794,7 +24104,7 @@
         <v>0.45276863385071747</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>118.46250000000001</v>
       </c>
@@ -23818,7 +24128,7 @@
         <v>0.92414074257062062</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>84.078000000000003</v>
       </c>
@@ -23844,7 +24154,7 @@
         <v>2.2635656752090063</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>82.188000000000002</v>
       </c>
@@ -23868,7 +24178,7 @@
         <v>1.7645840613897217</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>80.325000000000003</v>
       </c>
@@ -23892,7 +24202,7 @@
         <v>1.3461209452314571</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42.443999999999903</v>
       </c>
@@ -23918,7 +24228,7 @@
         <v>0.79244604970344867</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42.039000000000001</v>
       </c>
@@ -23934,7 +24244,7 @@
         <v>1.0685799954396447</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40.162500000000001</v>
       </c>
@@ -23950,7 +24260,7 @@
         <v>0.4308529618650363</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20.081250000000001</v>
       </c>
@@ -23969,7 +24279,7 @@
         <v>0.35100721375814331</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18.710999999999999</v>
       </c>
@@ -23985,7 +24295,7 @@
         <v>1.3361393792315954</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>145.80000000000001</v>
       </c>
@@ -24008,7 +24318,7 @@
         <v>4.964801240891334</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>90.72</v>
       </c>
@@ -24024,7 +24334,7 @@
         <v>1.9234930075934253</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>78.408000000000001</v>
       </c>
@@ -24040,7 +24350,7 @@
         <v>1.3471810208653305</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>48.787199999999999</v>
       </c>
@@ -24048,25 +24358,25 @@
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="D45" s="24" t="s">
         <v>85</v>
@@ -24080,7 +24390,7 @@
         <v>3.305718950210041</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="D46" s="26">
         <v>2</v>
@@ -24090,7 +24400,7 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47"/>
       <c r="D47" s="26">
         <v>3</v>
@@ -24100,7 +24410,7 @@
       </c>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="D48" s="26">
         <v>9</v>
@@ -24110,7 +24420,7 @@
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="D49" s="26">
         <v>1</v>
@@ -24120,7 +24430,7 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50"/>
       <c r="D50" s="26">
         <v>8</v>
@@ -24130,7 +24440,7 @@
       </c>
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="D51" s="26">
         <v>7</v>
@@ -24140,7 +24450,7 @@
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="D52" s="26">
         <v>5</v>
@@ -24150,430 +24460,430 @@
       </c>
       <c r="F52" s="27"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -24592,22 +24902,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EB2ECA-37B9-4DAF-8B4A-314272872836}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="12" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>59</v>
       </c>
@@ -24618,7 +24928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -24667,7 +24977,7 @@
         <v>0.42882197402495797</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>187.849999999999</v>
       </c>
@@ -24724,7 +25034,7 @@
         <v>6.5600015624999966E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>146.25</v>
       </c>
@@ -24782,7 +25092,7 @@
         <v>0.50501063088100107</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>124.27</v>
       </c>
@@ -24840,7 +25150,7 @@
         <v>0.18297434002502724</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>109.849999999999</v>
       </c>
@@ -24898,7 +25208,7 @@
         <v>1.283745650625008</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>96.749999999999901</v>
       </c>
@@ -24949,7 +25259,7 @@
         <v>1.2923028720250065</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>78.649999999999906</v>
       </c>
@@ -24992,7 +25302,7 @@
         <v>2.1209873623210083</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>72.669999999999902</v>
       </c>
@@ -25017,7 +25327,7 @@
         <v>4.0441008900250139</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>52.649999999999899</v>
       </c>
@@ -25068,7 +25378,7 @@
         <v>1.5392099412010081</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>52.029999999999902</v>
       </c>
@@ -25111,7 +25421,7 @@
         <v>1.3130616003210003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34.83</v>
       </c>
@@ -25162,7 +25472,7 @@
         <v>2.0763015993751539</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>128.99249999999901</v>
       </c>
@@ -25213,7 +25523,7 @@
         <v>0.76700987568099999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>94.77</v>
       </c>
@@ -25264,7 +25574,7 @@
         <v>2.455025189904001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>76.44</v>
       </c>
@@ -25315,7 +25625,7 @@
         <v>8.3277031640624673E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65.8125</v>
       </c>
@@ -25366,7 +25676,7 @@
         <v>1.0466544917617715</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56.16</v>
       </c>
@@ -25417,7 +25727,7 @@
         <v>2.3716899999999966E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>39</v>
       </c>
@@ -25433,7 +25743,7 @@
         <v>0.30555052713906605</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23.8874999999999</v>
       </c>
@@ -25459,7 +25769,7 @@
         <v>3.3732832225001168E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17.549999999999901</v>
       </c>
@@ -25485,7 +25795,7 @@
         <v>0.58179232969726513</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>134.15625</v>
       </c>
@@ -25509,7 +25819,7 @@
         <v>1.2882095640462397</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>133.596</v>
       </c>
@@ -25535,7 +25845,7 @@
         <v>0.34867418858496008</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>132.19200000000001</v>
       </c>
@@ -25559,7 +25869,7 @@
         <v>1.1397373051910402</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>120.744</v>
       </c>
@@ -25583,7 +25893,7 @@
         <v>4.801041912382599E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>118.58399999999899</v>
       </c>
@@ -25609,7 +25919,7 @@
         <v>0.58562478075156255</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>118.46250000000001</v>
       </c>
@@ -25633,7 +25943,7 @@
         <v>0.66466941231076015</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>84.078000000000003</v>
       </c>
@@ -25659,7 +25969,7 @@
         <v>1.8099924533121596</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>82.188000000000002</v>
       </c>
@@ -25683,7 +25993,7 @@
         <v>1.33703547150625</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>80.325000000000003</v>
       </c>
@@ -25707,7 +26017,7 @@
         <v>0.52631368543503565</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42.443999999999903</v>
       </c>
@@ -25733,7 +26043,7 @@
         <v>0.20487962007769009</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42.039000000000001</v>
       </c>
@@ -25749,7 +26059,7 @@
         <v>0.34006538037656253</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40.162500000000001</v>
       </c>
@@ -25765,7 +26075,7 @@
         <v>4.4323138441406283E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20.081250000000001</v>
       </c>
@@ -25784,7 +26094,7 @@
         <v>4.7077437690000959E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18.710999999999999</v>
       </c>
@@ -25800,7 +26110,7 @@
         <v>2.0674413795999991</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>145.80000000000001</v>
       </c>
@@ -25823,7 +26133,7 @@
         <v>5.4204034869760003</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>90.72</v>
       </c>
@@ -25839,7 +26149,7 @@
         <v>1.4436829919289602</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>78.408000000000001</v>
       </c>
@@ -25855,7 +26165,7 @@
         <v>2.4069839462219775</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>48.787199999999999</v>
       </c>
@@ -25863,25 +26173,25 @@
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="D45" s="24" t="s">
         <v>85</v>
@@ -25895,7 +26205,7 @@
         <v>3.305718950210041</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="D46" s="26">
         <v>2</v>
@@ -25905,7 +26215,7 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47"/>
       <c r="D47" s="26">
         <v>3</v>
@@ -25915,7 +26225,7 @@
       </c>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="D48" s="26">
         <v>9</v>
@@ -25925,7 +26235,7 @@
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="D49" s="26">
         <v>1</v>
@@ -25935,7 +26245,7 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50"/>
       <c r="D50" s="26">
         <v>8</v>
@@ -25945,7 +26255,7 @@
       </c>
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="D51" s="26">
         <v>7</v>
@@ -25955,7 +26265,7 @@
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="D52" s="26">
         <v>5</v>
@@ -25965,430 +26275,430 @@
       </c>
       <c r="F52" s="27"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -26406,22 +26716,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5DDA2E-912A-4471-9F68-BB092B329F26}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="12" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>65</v>
       </c>
@@ -26432,7 +26742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -26482,7 +26792,7 @@
         <v>1.8632132209686224E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>47</v>
       </c>
@@ -26540,7 +26850,7 @@
         <v>2.0217654247110521E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>50</v>
       </c>
@@ -26598,7 +26908,7 @@
         <v>5.0726451345887011E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>53</v>
       </c>
@@ -26656,7 +26966,7 @@
         <v>0.1386191233260903</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>58</v>
       </c>
@@ -26714,7 +27024,7 @@
         <v>1.3562987769970948E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>56</v>
       </c>
@@ -26765,7 +27075,7 @@
         <v>1.3422135909177841E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>56</v>
       </c>
@@ -26808,7 +27118,7 @@
         <v>8.7539022784368526E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>58</v>
       </c>
@@ -26833,7 +27143,7 @@
         <v>2.9498801887541764E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>58</v>
       </c>
@@ -26884,7 +27194,7 @@
         <v>1.2610773164396108E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>60</v>
       </c>
@@ -26927,7 +27237,7 @@
         <v>2.5825638447396999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>60</v>
       </c>
@@ -26978,7 +27288,7 @@
         <v>4.3571634699073068E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>55</v>
       </c>
@@ -27029,7 +27339,7 @@
         <v>0.1386191233260903</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>58</v>
       </c>
@@ -27056,7 +27366,7 @@
         <v>-2.0762156035033552</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="10"/>
+        <f>I10-I11*I12</f>
         <v>-4.0876765289279984</v>
       </c>
       <c r="J14" s="2">
@@ -27080,7 +27390,7 @@
         <v>6.5659536276975862E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>58</v>
       </c>
@@ -27131,7 +27441,7 @@
         <v>1.2610773164396108E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>60</v>
       </c>
@@ -27182,7 +27492,7 @@
         <v>1.6175796958199418E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>56</v>
       </c>
@@ -27233,7 +27543,7 @@
         <v>2.8289863870538397E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>58</v>
       </c>
@@ -27249,7 +27559,7 @@
         <v>2.8998563472162408E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>60</v>
       </c>
@@ -27265,7 +27575,7 @@
         <v>3.1456099100485961E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>56</v>
       </c>
@@ -27291,7 +27601,7 @@
         <v>3.4866512238966182E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>58</v>
       </c>
@@ -27317,7 +27627,7 @@
         <v>4.069618325198086E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>60</v>
       </c>
@@ -27341,7 +27651,7 @@
         <v>2.1262645759288934E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>56</v>
       </c>
@@ -27367,7 +27677,7 @@
         <v>1.7644894527570423E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>58</v>
       </c>
@@ -27391,7 +27701,7 @@
         <v>6.7625999004401337E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>60</v>
       </c>
@@ -27415,7 +27725,7 @@
         <v>9.7436740542836631E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
         <v>56</v>
       </c>
@@ -27441,7 +27751,7 @@
         <v>0.10670290920224813</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>58</v>
       </c>
@@ -27465,7 +27775,7 @@
         <v>4.6251335035409784E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>60</v>
       </c>
@@ -27483,7 +27793,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
@@ -27494,7 +27804,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
@@ -27505,7 +27815,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="D31" s="14" t="s">
         <v>66</v>
@@ -27518,22 +27828,22 @@
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="D33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="D36" t="s">
         <v>80</v>
@@ -27543,7 +27853,7 @@
         <v>-1.7692533442816671</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="D37" t="s">
         <v>81</v>
@@ -27553,7 +27863,7 @@
         <v>1.7011658492936305E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="D38" t="s">
         <v>84</v>
@@ -27563,472 +27873,472 @@
         <v>-5.603367753666662</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -28047,22 +28357,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5636F9FA-0A09-417B-9EB7-B2BA49EA67E9}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="12" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="12" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>65</v>
       </c>
@@ -28073,7 +28383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -28123,7 +28433,7 @@
         <v>0.28135627624432508</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>250</v>
       </c>
@@ -28181,7 +28491,7 @@
         <v>0.20362568579676948</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>250</v>
       </c>
@@ -28239,7 +28549,7 @@
         <v>0.13371110498790664</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>250</v>
       </c>
@@ -28297,7 +28607,7 @@
         <v>0.16299944110488873</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>350</v>
       </c>
@@ -28355,7 +28665,7 @@
         <v>0.16974764092046177</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>350</v>
       </c>
@@ -28406,7 +28716,7 @@
         <v>0.18181344412646197</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>350</v>
       </c>
@@ -28449,7 +28759,7 @@
         <v>0.15433808545912239</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>350</v>
       </c>
@@ -28474,7 +28784,7 @@
         <v>9.5579847053078856E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>275</v>
       </c>
@@ -28525,7 +28835,7 @@
         <v>0.17140657462876455</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>345</v>
       </c>
@@ -28568,7 +28878,7 @@
         <v>0.58186393791764079</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>275</v>
       </c>
@@ -28619,7 +28929,7 @@
         <v>0.23132209905221726</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>345</v>
       </c>
@@ -28670,7 +28980,7 @@
         <v>0.42356802471080757</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100</v>
       </c>
@@ -28721,7 +29031,7 @@
         <v>0.26471460324135493</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200</v>
       </c>
@@ -28772,7 +29082,7 @@
         <v>0.58968312739262296</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>300</v>
       </c>
@@ -28823,7 +29133,7 @@
         <v>2.7937198635472402E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>400</v>
       </c>
@@ -28874,12 +29184,45 @@
         <v>0.10330398585580382</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>400</v>
       </c>
       <c r="B18">
         <v>0.37657695705651101</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
+        <f>E17-E16</f>
+        <v>1.8214301265048611</v>
+      </c>
+      <c r="F18" s="29">
+        <f>F17-F16</f>
+        <v>1.812170963196488</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" ref="F18:L18" si="14">G17-G16</f>
+        <v>1.803194152572293</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="14"/>
+        <v>1.794503931953001</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="14"/>
+        <v>1.786104484520461</v>
+      </c>
+      <c r="J18" s="29">
+        <f t="shared" si="14"/>
+        <v>1.7779999312032806</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="14"/>
+        <v>1.7701943223835876</v>
+      </c>
+      <c r="L18" s="29">
+        <f t="shared" si="14"/>
+        <v>1.762691629453307</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
@@ -28890,12 +29233,44 @@
         <v>0.10866111639851066</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>250</v>
       </c>
       <c r="B19">
         <v>0.94101424370556896</v>
+      </c>
+      <c r="E19">
+        <f>4*E6</f>
+        <v>1.6945049037582818</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:L19" si="15">4*F6</f>
+        <v>1.6945049037582818</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="15"/>
+        <v>1.6945049037582818</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="15"/>
+        <v>1.6945049037582818</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="15"/>
+        <v>1.6945049037582818</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="15"/>
+        <v>1.6945049037582818</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="15"/>
+        <v>1.6945049037582818</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="15"/>
+        <v>1.6945049037582818</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
@@ -28906,7 +29281,7 @@
         <v>1.2898708347585885E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>300</v>
       </c>
@@ -28932,7 +29307,7 @@
         <v>8.6862001821464377E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>350</v>
       </c>
@@ -28958,7 +29333,7 @@
         <v>0.16737066573609297</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>300</v>
       </c>
@@ -28982,7 +29357,7 @@
         <v>7.1681152968474882E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>300</v>
       </c>
@@ -29008,7 +29383,7 @@
         <v>0.2017272412177698</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>400</v>
       </c>
@@ -29032,7 +29407,7 @@
         <v>3.2116845906984916E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>500</v>
       </c>
@@ -29056,7 +29431,7 @@
         <v>0.28271996923761894</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>250</v>
       </c>
@@ -29082,7 +29457,7 @@
         <v>1.0414806021091181E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>250</v>
       </c>
@@ -29106,7 +29481,7 @@
         <v>2.3386650526836055E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>250</v>
       </c>
@@ -29124,7 +29499,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
@@ -29140,7 +29515,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>200</v>
       </c>
@@ -29156,7 +29531,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>250</v>
       </c>
@@ -29174,7 +29549,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
@@ -29182,7 +29557,7 @@
         <v>0.46982201597816298</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>350</v>
       </c>
@@ -29193,7 +29568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>250</v>
       </c>
@@ -29201,7 +29576,7 @@
         <v>1.21563756343506</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>300</v>
       </c>
@@ -29209,7 +29584,7 @@
         <v>1.06145247908719</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>350</v>
       </c>
@@ -29224,7 +29599,7 @@
         <v>5.5167582806468607E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>400</v>
       </c>
@@ -29239,7 +29614,7 @@
         <v>1.1354488709751058</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>300</v>
       </c>
@@ -29254,7 +29629,7 @@
         <v>-269.68289390156957</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>400</v>
       </c>
@@ -29262,7 +29637,7 @@
         <v>0.19589965240923299</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>600</v>
       </c>
@@ -29270,7 +29645,7 @@
         <v>-0.167491087293763</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>550</v>
       </c>
@@ -29278,7 +29653,7 @@
         <v>-0.60205999132796195</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>550</v>
       </c>
@@ -29286,7 +29661,7 @@
         <v>-0.32221929473391903</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>550</v>
       </c>
@@ -29294,457 +29669,457 @@
         <v>-0.14612803567823801</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194"/>
     </row>
   </sheetData>
@@ -29759,37 +30134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Metadata xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c756f50-8749-4fdc-9f07-7447a579048a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Brief" ma:contentTypeID="0x01010082E62A0BAF645948910C74B95413F7A1009EB998A7F8A6B4428DDC75E6205A06D1" ma:contentTypeVersion="21" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8240c9f3cbadb7cc0e0c692fc7e00cb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56507e8f-35fa-4488-a198-a86b89e1c54e" xmlns:ns3="569c121f-f531-4c0e-8323-82670d54aa76" xmlns:ns4="3c756f50-8749-4fdc-9f07-7447a579048a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ebee25a2125b82121dd14ae47b8b2d6" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="56507e8f-35fa-4488-a198-a86b89e1c54e"/>
@@ -30050,34 +30394,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03254E5-E74A-4167-9A4F-FE37A4FB5E07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Metadata xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c756f50-8749-4fdc-9f07-7447a579048a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="56507e8f-35fa-4488-a198-a86b89e1c54e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494F6368-EF99-46AF-AC85-408C50CA1F2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A053A1-EE62-4A95-8CA4-1574A201746E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56507e8f-35fa-4488-a198-a86b89e1c54e"/>
-    <ds:schemaRef ds:uri="3c756f50-8749-4fdc-9f07-7447a579048a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017AA32-3EED-43B4-A6DC-ACD52AF3D90F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30095,4 +30443,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A053A1-EE62-4A95-8CA4-1574A201746E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56507e8f-35fa-4488-a198-a86b89e1c54e"/>
+    <ds:schemaRef ds:uri="3c756f50-8749-4fdc-9f07-7447a579048a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494F6368-EF99-46AF-AC85-408C50CA1F2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03254E5-E74A-4167-9A4F-FE37A4FB5E07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>